--- a/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057852</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769893</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9660706434537709</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419925934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208834083</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088965216</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050737294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508782939</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9543373515865726</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816591</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981064</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572514</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.9475391330285313</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
+        <v>0.9533716596442546</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9598754494005832</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057851</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.970642461629057</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208834081</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9490745509764514</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.933278105073729</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9494987508782936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,7 +670,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9488714019981065</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
+        <v>0.9460223821572517</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
+        <v>0.9475391330285317</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
+        <v>0.9533716596442547</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.959875449400583</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9707568307880533</v>
+      </c>
+      <c r="D2">
+        <v>0.9951297805416447</v>
+      </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
+      <c r="F2">
+        <v>0.9459900133311525</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.034047122827053</v>
+      </c>
+      <c r="J2">
+        <v>0.9938488223596537</v>
+      </c>
+      <c r="K2">
+        <v>1.006657384855055</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
+      <c r="M2">
+        <v>0.9582568548284204</v>
+      </c>
+      <c r="N2">
+        <v>0.9952602016834576</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9804951894677029</v>
+      </c>
+      <c r="D3">
+        <v>1.002620361987228</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9571825583057848</v>
+      </c>
+      <c r="F3">
+        <v>0.9588408921141507</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.037340741852232</v>
+      </c>
+      <c r="J3">
+        <v>1.001532076714909</v>
+      </c>
+      <c r="K3">
+        <v>1.013219824228842</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9683942856474066</v>
+      </c>
+      <c r="M3">
+        <v>0.9700289836777682</v>
+      </c>
+      <c r="N3">
+        <v>1.002954367141179</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9865188310728756</v>
+      </c>
+      <c r="D4">
+        <v>1.007255248680353</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9600238894088612</v>
+      </c>
+      <c r="F4">
+        <v>0.9667767617160338</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.039358214112228</v>
+      </c>
+      <c r="J4">
+        <v>1.00627378823422</v>
+      </c>
+      <c r="K4">
+        <v>1.017266890857836</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9706300002952756</v>
+      </c>
+      <c r="M4">
+        <v>0.9772934200047882</v>
+      </c>
+      <c r="N4">
+        <v>1.00770281243473</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9889901062995655</v>
+      </c>
+      <c r="D5">
+        <v>1.009156960262112</v>
+      </c>
       <c r="E5">
         <v>0.9612062874769892</v>
       </c>
+      <c r="F5">
+        <v>0.9700302356701207</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.040181071577319</v>
+      </c>
+      <c r="J5">
+        <v>1.008216539350264</v>
+      </c>
+      <c r="K5">
+        <v>1.018924250651313</v>
       </c>
       <c r="L5">
         <v>0.9715596031702913</v>
+      </c>
+      <c r="M5">
+        <v>0.9802702810502822</v>
+      </c>
+      <c r="N5">
+        <v>1.009648322480194</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9894016076761227</v>
+      </c>
+      <c r="D6">
+        <v>1.0094736273694</v>
+      </c>
       <c r="E6">
         <v>0.9614041218017086</v>
       </c>
+      <c r="F6">
+        <v>0.9705718688013033</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.040317801573011</v>
+      </c>
+      <c r="J6">
+        <v>1.008539880856762</v>
+      </c>
+      <c r="K6">
+        <v>1.019200044686898</v>
       </c>
       <c r="L6">
         <v>0.9717150950965047</v>
+      </c>
+      <c r="M6">
+        <v>0.9807657828163626</v>
+      </c>
+      <c r="N6">
+        <v>1.00997212316872</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9865520856859422</v>
+      </c>
+      <c r="D7">
+        <v>1.007280838470262</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9600397355691361</v>
+      </c>
+      <c r="F7">
+        <v>0.966820550170072</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.039369306171002</v>
+      </c>
+      <c r="J7">
+        <v>1.00629994111394</v>
+      </c>
+      <c r="K7">
+        <v>1.017289205082164</v>
+      </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9706424616290571</v>
+      </c>
+      <c r="M7">
+        <v>0.9773334909688937</v>
+      </c>
+      <c r="N7">
+        <v>1.007729002454538</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9741089727968362</v>
+      </c>
+      <c r="D8">
+        <v>0.9977077225756189</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
+      </c>
+      <c r="F8">
+        <v>0.9504168666089672</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.035185016921409</v>
+      </c>
+      <c r="J8">
+        <v>0.9964958377820068</v>
+      </c>
+      <c r="K8">
+        <v>1.008918834007703</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
+      </c>
+      <c r="M8">
+        <v>0.9623131711864386</v>
+      </c>
+      <c r="N8">
+        <v>0.9979109761713277</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9497631277788492</v>
+      </c>
+      <c r="D9">
+        <v>0.9790015639286757</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419923924</v>
+      </c>
+      <c r="F9">
+        <v>0.9181640538884497</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.026836503290052</v>
+      </c>
+      <c r="J9">
+        <v>0.977223730488371</v>
+      </c>
+      <c r="K9">
+        <v>0.9924447683908331</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9576541208832517</v>
+      </c>
+      <c r="M9">
+        <v>0.9327408078119489</v>
+      </c>
+      <c r="N9">
+        <v>0.9786115002747929</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9313926500990206</v>
+      </c>
+      <c r="D10">
+        <v>0.9649221002027556</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547164</v>
+      </c>
+      <c r="F10">
+        <v>0.8936267283183598</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.020432322953589</v>
+      </c>
+      <c r="J10">
+        <v>0.9626200088746908</v>
+      </c>
+      <c r="K10">
+        <v>0.9799549580993054</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689266</v>
+      </c>
+      <c r="M10">
+        <v>0.9102246575524017</v>
+      </c>
+      <c r="N10">
+        <v>0.9639870397013511</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9227723715266526</v>
+      </c>
+      <c r="D11">
+        <v>0.9583291961120062</v>
+      </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
+      <c r="F11">
+        <v>0.8820352243623431</v>
+      </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.017404153657664</v>
+      </c>
+      <c r="J11">
+        <v>0.9557524346139635</v>
+      </c>
+      <c r="K11">
+        <v>0.9740822051047521</v>
+      </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9491556125416571</v>
+      </c>
+      <c r="M11">
+        <v>0.8995867554601824</v>
+      </c>
+      <c r="N11">
+        <v>0.957109712697452</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.919452203112005</v>
+      </c>
+      <c r="D12">
+        <v>0.9557925361496009</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9316058186411971</v>
+      </c>
+      <c r="F12">
+        <v>0.8775555176385076</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.016234570229413</v>
+      </c>
+      <c r="J12">
+        <v>0.9531050726031495</v>
+      </c>
+      <c r="K12">
+        <v>0.9718186880869948</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252506</v>
+      </c>
+      <c r="M12">
+        <v>0.8954757740251724</v>
+      </c>
+      <c r="N12">
+        <v>0.9544585911289257</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9201700893668985</v>
+      </c>
+      <c r="D13">
+        <v>0.9563408827112918</v>
+      </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593368228</v>
+      </c>
+      <c r="F13">
+        <v>0.8785248687307182</v>
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.016487600482848</v>
+      </c>
+      <c r="J13">
+        <v>0.9536775873819182</v>
+      </c>
+      <c r="K13">
+        <v>0.9723081726229698</v>
       </c>
       <c r="L13">
         <v>0.9483836088965214</v>
+      </c>
+      <c r="M13">
+        <v>0.8963653217986541</v>
+      </c>
+      <c r="N13">
+        <v>0.9550319189443486</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.922500460746092</v>
+      </c>
+      <c r="D14">
+        <v>0.9581213949958339</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194317</v>
+      </c>
+      <c r="F14">
+        <v>0.8816686804819943</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.01730843309452</v>
+      </c>
+      <c r="J14">
+        <v>0.9555356703192642</v>
+      </c>
+      <c r="K14">
+        <v>0.9738968610547434</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
+      </c>
+      <c r="M14">
+        <v>0.8992503754413654</v>
+      </c>
+      <c r="N14">
+        <v>0.9568926405725907</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.923919983026253</v>
+      </c>
+      <c r="D15">
+        <v>0.9592063404706674</v>
+      </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9332781050717474</v>
+      </c>
+      <c r="F15">
+        <v>0.8835816045279365</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.017808016297806</v>
+      </c>
+      <c r="J15">
+        <v>0.9566672064308329</v>
+      </c>
+      <c r="K15">
+        <v>0.9748643955177323</v>
+      </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9494987508767193</v>
+      </c>
+      <c r="M15">
+        <v>0.9010058901598905</v>
+      </c>
+      <c r="N15">
+        <v>0.9580257835952267</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9319492820273959</v>
+      </c>
+      <c r="D16">
+        <v>0.9653481461292831</v>
+      </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017257</v>
+      </c>
+      <c r="F16">
+        <v>0.8943733743699744</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.020627405785284</v>
+      </c>
+      <c r="J16">
+        <v>0.9630631602711164</v>
+      </c>
+      <c r="K16">
+        <v>0.9803339494259283</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0.9109098828142765</v>
+      </c>
+      <c r="N16">
+        <v>0.9644308204235899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.936796249491433</v>
+      </c>
+      <c r="D17">
+        <v>0.9690595981464981</v>
+      </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.938276015685567</v>
+      </c>
+      <c r="F17">
+        <v>0.9008660575854853</v>
       </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.022323596571477</v>
+      </c>
+      <c r="J17">
+        <v>0.9669203359075494</v>
+      </c>
+      <c r="K17">
+        <v>0.9836327813776266</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0.9168683618689273</v>
+      </c>
+      <c r="N17">
+        <v>0.9682934736918511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9395606200151775</v>
+      </c>
+      <c r="D18">
+        <v>0.9711775798940072</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215685</v>
+      </c>
+      <c r="F18">
+        <v>0.9045621783872111</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.023288855481087</v>
+      </c>
+      <c r="J18">
+        <v>0.9691188393741014</v>
+      </c>
+      <c r="K18">
+        <v>0.9855130907413465</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9543373515865726</v>
+      </c>
+      <c r="M18">
+        <v>0.9202602353250069</v>
+      </c>
+      <c r="N18">
+        <v>0.9704950992854973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9404930246336602</v>
+      </c>
+      <c r="D19">
+        <v>0.9718921555726009</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814680091</v>
+      </c>
+      <c r="F19">
+        <v>0.9058077799318728</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.023614064670026</v>
+      </c>
+      <c r="J19">
+        <v>0.9698601506100687</v>
+      </c>
+      <c r="K19">
+        <v>0.9861471125603413</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9546352493812711</v>
+      </c>
+      <c r="M19">
+        <v>0.9214032722882793</v>
+      </c>
+      <c r="N19">
+        <v>0.9712374632684493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9362828255270672</v>
+      </c>
+      <c r="D20">
+        <v>0.9686663238662628</v>
+      </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660141</v>
+      </c>
+      <c r="F20">
+        <v>0.9001790439728812</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.02214414530099</v>
+      </c>
+      <c r="J20">
+        <v>0.9665118994083918</v>
+      </c>
+      <c r="K20">
+        <v>0.9832834612520184</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0.916237886491182</v>
+      </c>
+      <c r="N20">
+        <v>0.967884457166016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9218176599557804</v>
+      </c>
+      <c r="D21">
+        <v>0.9575996258548632</v>
+      </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
+      <c r="F21">
+        <v>0.8807479882951736</v>
+      </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.017068015771199</v>
+      </c>
+      <c r="J21">
+        <v>0.9549913126538813</v>
+      </c>
+      <c r="K21">
+        <v>0.9734314152827747</v>
       </c>
       <c r="L21">
         <v>0.9488714019981065</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0.8984054539837621</v>
+      </c>
+      <c r="N21">
+        <v>0.9563475098568847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9120256128030698</v>
+      </c>
+      <c r="D22">
+        <v>0.9501241874762353</v>
+      </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
+      </c>
+      <c r="F22">
+        <v>0.8675020737073983</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.013612624511291</v>
+      </c>
+      <c r="J22">
+        <v>0.9471791493248549</v>
+      </c>
+      <c r="K22">
+        <v>0.9667529615572205</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9460223821572518</v>
+      </c>
+      <c r="M22">
+        <v>0.8862507241070623</v>
+      </c>
+      <c r="N22">
+        <v>0.9485242523598632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9172902095308578</v>
+      </c>
+      <c r="D23">
+        <v>0.9541415696586916</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9308081199963314</v>
+      </c>
+      <c r="F23">
+        <v>0.8746336513798855</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.015472081072148</v>
+      </c>
+      <c r="J23">
+        <v>0.951380545204445</v>
+      </c>
+      <c r="K23">
+        <v>0.9703443383759358</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9475391330285318</v>
+      </c>
+      <c r="M23">
+        <v>0.8927945190704489</v>
+      </c>
+      <c r="N23">
+        <v>0.952731614703509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9365150124179714</v>
+      </c>
+      <c r="D24">
+        <v>0.9688441713960021</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9381640424011709</v>
+      </c>
+      <c r="F24">
+        <v>0.9004897548338761</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.02222530561513</v>
+      </c>
+      <c r="J24">
+        <v>0.9666966118160659</v>
+      </c>
+      <c r="K24">
+        <v>0.9834414385772914</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.953371659644245</v>
+      </c>
+      <c r="M24">
+        <v>0.916523027656113</v>
+      </c>
+      <c r="N24">
+        <v>0.968069431886496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.956390139536877</v>
+      </c>
+      <c r="D25">
+        <v>0.9840890025346085</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9463835801717732</v>
+      </c>
+      <c r="F25">
+        <v>0.9269691048021766</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.02912687491227</v>
+      </c>
+      <c r="J25">
+        <v>0.9824798767182907</v>
+      </c>
+      <c r="K25">
+        <v>0.9969394422311005</v>
+      </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.959875449400561</v>
+      </c>
+      <c r="M25">
+        <v>0.9408178416777238</v>
+      </c>
+      <c r="N25">
+        <v>0.9838751108352479</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9707568307880533</v>
+        <v>0.9939688543382281</v>
       </c>
       <c r="D2">
-        <v>0.9951297805416447</v>
+        <v>1.013682019491792</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.014269902715737</v>
       </c>
       <c r="F2">
-        <v>0.9459900133311525</v>
+        <v>1.019559981456679</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034047122827053</v>
+        <v>1.044326119001545</v>
       </c>
       <c r="J2">
-        <v>0.9938488223596537</v>
+        <v>1.016331464611271</v>
       </c>
       <c r="K2">
-        <v>1.006657384855055</v>
+        <v>1.024953976904949</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.025533951358571</v>
       </c>
       <c r="M2">
-        <v>0.9582568548284204</v>
+        <v>1.03075337782382</v>
       </c>
       <c r="N2">
-        <v>0.9952602016834576</v>
+        <v>1.017774771865861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9804951894677029</v>
+        <v>0.9984308664386184</v>
       </c>
       <c r="D3">
-        <v>1.002620361987228</v>
+        <v>1.016868065648807</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>1.019045467892419</v>
       </c>
       <c r="F3">
-        <v>0.9588408921141507</v>
+        <v>1.024525284950849</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037340741852232</v>
+        <v>1.045602876962267</v>
       </c>
       <c r="J3">
-        <v>1.001532076714909</v>
+        <v>1.018964399211448</v>
       </c>
       <c r="K3">
-        <v>1.013219824228842</v>
+        <v>1.027289571529783</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>1.029440322671188</v>
       </c>
       <c r="M3">
-        <v>0.9700289836777682</v>
+        <v>1.034853689849682</v>
       </c>
       <c r="N3">
-        <v>1.002954367141179</v>
+        <v>1.020411445535178</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9865188310728756</v>
+        <v>1.001255257032392</v>
       </c>
       <c r="D4">
-        <v>1.007255248680353</v>
+        <v>1.018885103962251</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>1.022076703224266</v>
       </c>
       <c r="F4">
-        <v>0.9667767617160338</v>
+        <v>1.0276740836887</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039358214112228</v>
+        <v>1.046396317642034</v>
       </c>
       <c r="J4">
-        <v>1.00627378823422</v>
+        <v>1.020626907619684</v>
       </c>
       <c r="K4">
-        <v>1.017266890857836</v>
+        <v>1.028760822665716</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>1.031915787884321</v>
       </c>
       <c r="M4">
-        <v>0.9772934200047882</v>
+        <v>1.037449597235321</v>
       </c>
       <c r="N4">
-        <v>1.00770281243473</v>
+        <v>1.022076314896046</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9889901062995655</v>
+        <v>1.002428124667954</v>
       </c>
       <c r="D5">
-        <v>1.009156960262112</v>
+        <v>1.019722723008026</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.023337485644302</v>
       </c>
       <c r="F5">
-        <v>0.9700302356701207</v>
+        <v>1.028983074216346</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040181071577319</v>
+        <v>1.04672221718998</v>
       </c>
       <c r="J5">
-        <v>1.008216539350264</v>
+        <v>1.021316270541593</v>
       </c>
       <c r="K5">
-        <v>1.018924250651313</v>
+        <v>1.029370017193286</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>1.032944426617158</v>
       </c>
       <c r="M5">
-        <v>0.9802702810502822</v>
+        <v>1.038527687729439</v>
       </c>
       <c r="N5">
-        <v>1.009648322480194</v>
+        <v>1.022766656792375</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9894016076761227</v>
+        <v>1.002624218696941</v>
       </c>
       <c r="D6">
-        <v>1.0094736273694</v>
+        <v>1.019862765379343</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>1.023548397388412</v>
       </c>
       <c r="F6">
-        <v>0.9705718688013033</v>
+        <v>1.029202009921442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040317801573011</v>
+        <v>1.04677649249034</v>
       </c>
       <c r="J6">
-        <v>1.008539880856762</v>
+        <v>1.021431465749998</v>
       </c>
       <c r="K6">
-        <v>1.019200044686898</v>
+        <v>1.029471764579197</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>1.033116445922882</v>
       </c>
       <c r="M6">
-        <v>0.9807657828163626</v>
+        <v>1.038707941638426</v>
       </c>
       <c r="N6">
-        <v>1.00997212316872</v>
+        <v>1.022882015591189</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9865520856859422</v>
+        <v>1.001270985257939</v>
       </c>
       <c r="D7">
-        <v>1.007280838470262</v>
+        <v>1.018896336499983</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>1.022093602396499</v>
       </c>
       <c r="F7">
-        <v>0.966820550170072</v>
+        <v>1.027691631755587</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039369306171002</v>
+        <v>1.046400702222452</v>
       </c>
       <c r="J7">
-        <v>1.00629994111394</v>
+        <v>1.020636156079007</v>
       </c>
       <c r="K7">
-        <v>1.017289205082164</v>
+        <v>1.028768999030738</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>1.031929579356785</v>
       </c>
       <c r="M7">
-        <v>0.9773334909688937</v>
+        <v>1.037464054094918</v>
       </c>
       <c r="N7">
-        <v>1.007729002454538</v>
+        <v>1.022085576489242</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9741089727968362</v>
+        <v>0.9954901529966499</v>
       </c>
       <c r="D8">
-        <v>0.9977077225756189</v>
+        <v>1.014768180809995</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>1.015896355530638</v>
       </c>
       <c r="F8">
-        <v>0.9504168666089672</v>
+        <v>1.021251655689843</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035185016921409</v>
+        <v>1.044764481251823</v>
       </c>
       <c r="J8">
-        <v>0.9964958377820068</v>
+        <v>1.017229990079905</v>
       </c>
       <c r="K8">
-        <v>1.008918834007703</v>
+        <v>1.02575175560354</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>1.026865221184214</v>
       </c>
       <c r="M8">
-        <v>0.9623131711864386</v>
+        <v>1.032151253269894</v>
       </c>
       <c r="N8">
-        <v>0.9979109761713277</v>
+        <v>1.018674573343729</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9497631277788492</v>
+        <v>0.9847968089967264</v>
       </c>
       <c r="D9">
-        <v>0.9790015639286757</v>
+        <v>1.007137374365138</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>1.004499052102114</v>
       </c>
       <c r="F9">
-        <v>0.9181640538884497</v>
+        <v>1.00938520339319</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026836503290052</v>
+        <v>1.041622737821396</v>
       </c>
       <c r="J9">
-        <v>0.977223730488371</v>
+        <v>1.010898095023594</v>
       </c>
       <c r="K9">
-        <v>0.9924447683908331</v>
+        <v>1.020115704378372</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>1.017519554633258</v>
       </c>
       <c r="M9">
-        <v>0.9327408078119489</v>
+        <v>1.022327825520547</v>
       </c>
       <c r="N9">
-        <v>0.9786115002747929</v>
+        <v>1.01233368627016</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9313926500990206</v>
+        <v>0.9772889047337026</v>
       </c>
       <c r="D10">
-        <v>0.9649221002027556</v>
+        <v>1.001787665574964</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547164</v>
+        <v>0.9965412123346269</v>
       </c>
       <c r="F10">
-        <v>0.8936267283183598</v>
+        <v>1.001084441966684</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020432322953589</v>
+        <v>1.03934240607482</v>
       </c>
       <c r="J10">
-        <v>0.9626200088746908</v>
+        <v>1.006433501235505</v>
       </c>
       <c r="K10">
-        <v>0.9799549580993054</v>
+        <v>1.016124718008583</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689266</v>
+        <v>1.010973198344191</v>
       </c>
       <c r="M10">
-        <v>0.9102246575524017</v>
+        <v>1.01543414404498</v>
       </c>
       <c r="N10">
-        <v>0.9639870397013511</v>
+        <v>1.007862752246795</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9227723715266526</v>
+        <v>0.9739386620449473</v>
       </c>
       <c r="D11">
-        <v>0.9583291961120062</v>
+        <v>0.9994033673649929</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9930005800058186</v>
       </c>
       <c r="F11">
-        <v>0.8820352243623431</v>
+        <v>0.9973876019460469</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017404153657664</v>
+        <v>1.038307978400482</v>
       </c>
       <c r="J11">
-        <v>0.9557524346139635</v>
+        <v>1.004437301828259</v>
       </c>
       <c r="K11">
-        <v>0.9740822051047521</v>
+        <v>1.014336544081421</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>1.008055713415921</v>
       </c>
       <c r="M11">
-        <v>0.8995867554601824</v>
+        <v>1.012358953001376</v>
       </c>
       <c r="N11">
-        <v>0.957109712697452</v>
+        <v>1.005863718007424</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.919452203112005</v>
+        <v>0.9726784528939708</v>
       </c>
       <c r="D12">
-        <v>0.9557925361496009</v>
+        <v>0.9985070278967439</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9916703039186012</v>
       </c>
       <c r="F12">
-        <v>0.8775555176385076</v>
+        <v>0.995998090675157</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016234570229413</v>
+        <v>1.037916407495847</v>
       </c>
       <c r="J12">
-        <v>0.9531050726031495</v>
+        <v>1.003685871706482</v>
       </c>
       <c r="K12">
-        <v>0.9718186880869948</v>
+        <v>1.013662886900563</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>1.006958846830626</v>
       </c>
       <c r="M12">
-        <v>0.8954757740251724</v>
+        <v>1.011202364676772</v>
       </c>
       <c r="N12">
-        <v>0.9544585911289257</v>
+        <v>1.005111220768683</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9201700893668985</v>
+        <v>0.9729495007285854</v>
       </c>
       <c r="D13">
-        <v>0.9563408827112918</v>
+        <v>0.9986997888245557</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368228</v>
+        <v>0.9919563520700319</v>
       </c>
       <c r="F13">
-        <v>0.8785248687307182</v>
+        <v>0.996296900745657</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016487600482848</v>
+        <v>1.038000737469697</v>
       </c>
       <c r="J13">
-        <v>0.9536775873819182</v>
+        <v>1.003847514634942</v>
       </c>
       <c r="K13">
-        <v>0.9723081726229698</v>
+        <v>1.013807823495673</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.007194737358801</v>
       </c>
       <c r="M13">
-        <v>0.8963653217986541</v>
+        <v>1.011451118174066</v>
       </c>
       <c r="N13">
-        <v>0.9550319189443486</v>
+        <v>1.005273093248643</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.922500460746092</v>
+        <v>0.9738348199054921</v>
       </c>
       <c r="D14">
-        <v>0.9581213949958339</v>
+        <v>0.9993294971407786</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9928909328907211</v>
       </c>
       <c r="F14">
-        <v>0.8816686804819943</v>
+        <v>0.9972730834909967</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.01730843309452</v>
+        <v>1.038275762379</v>
       </c>
       <c r="J14">
-        <v>0.9555356703192642</v>
+        <v>1.004375394362712</v>
       </c>
       <c r="K14">
-        <v>0.9738968610547434</v>
+        <v>1.014281054727934</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>1.007965319439011</v>
       </c>
       <c r="M14">
-        <v>0.8992503754413654</v>
+        <v>1.012263645983863</v>
       </c>
       <c r="N14">
-        <v>0.9568926405725907</v>
+        <v>1.005801722626175</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.923919983026253</v>
+        <v>0.974378176285184</v>
       </c>
       <c r="D15">
-        <v>0.9592063404706674</v>
+        <v>0.9997160467344558</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9934647269869552</v>
       </c>
       <c r="F15">
-        <v>0.8835816045279365</v>
+        <v>0.9978723475619835</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017808016297806</v>
+        <v>1.038444233384389</v>
       </c>
       <c r="J15">
-        <v>0.9566672064308329</v>
+        <v>1.004699304442317</v>
       </c>
       <c r="K15">
-        <v>0.9748643955177323</v>
+        <v>1.01457136258678</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>1.008438330795227</v>
       </c>
       <c r="M15">
-        <v>0.9010058901598905</v>
+        <v>1.012762348697935</v>
       </c>
       <c r="N15">
-        <v>0.9580257835952267</v>
+        <v>1.006126092695247</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9319492820273959</v>
+        <v>0.9775090853866094</v>
       </c>
       <c r="D16">
-        <v>0.9653481461292831</v>
+        <v>1.001944431365087</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9967741207854514</v>
       </c>
       <c r="F16">
-        <v>0.8943733743699744</v>
+        <v>1.001327550337115</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020627405785284</v>
+        <v>1.039410043959974</v>
       </c>
       <c r="J16">
-        <v>0.9630631602711164</v>
+        <v>1.006564614261021</v>
       </c>
       <c r="K16">
-        <v>0.9803339494259283</v>
+        <v>1.016242092224378</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>1.011165014961222</v>
       </c>
       <c r="M16">
-        <v>0.9109098828142765</v>
+        <v>1.015636269351196</v>
       </c>
       <c r="N16">
-        <v>0.9644308204235899</v>
+        <v>1.007994051467847</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.936796249491433</v>
+        <v>0.9794458535346565</v>
       </c>
       <c r="D17">
-        <v>0.9690595981464981</v>
+        <v>1.003323725137947</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9988240254646756</v>
       </c>
       <c r="F17">
-        <v>0.9008660575854853</v>
+        <v>1.003466814203972</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022323596571477</v>
+        <v>1.040003094131173</v>
       </c>
       <c r="J17">
-        <v>0.9669203359075494</v>
+        <v>1.007717473708631</v>
       </c>
       <c r="K17">
-        <v>0.9836327813776266</v>
+        <v>1.017273727311319</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>1.012852705239772</v>
       </c>
       <c r="M17">
-        <v>0.9168683618689273</v>
+        <v>1.017414329437266</v>
       </c>
       <c r="N17">
-        <v>0.9682934736918511</v>
+        <v>1.009148548108106</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9395606200151775</v>
+        <v>0.9805660212766166</v>
       </c>
       <c r="D18">
-        <v>0.9711775798940072</v>
+        <v>1.004121734936122</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>1.000010612779015</v>
       </c>
       <c r="F18">
-        <v>0.9045621783872111</v>
+        <v>1.004704782101768</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023288855481087</v>
+        <v>1.040344492132676</v>
       </c>
       <c r="J18">
-        <v>0.9691188393741014</v>
+        <v>1.008383873258047</v>
       </c>
       <c r="K18">
-        <v>0.9855130907413465</v>
+        <v>1.0178696991343</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>1.013829163035076</v>
       </c>
       <c r="M18">
-        <v>0.9202602353250069</v>
+        <v>1.018442796060792</v>
       </c>
       <c r="N18">
-        <v>0.9704950992854973</v>
+        <v>1.00981589402132</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9404930246336602</v>
+        <v>0.9809463806175956</v>
       </c>
       <c r="D19">
-        <v>0.9718921555726009</v>
+        <v>1.004392746601854</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680091</v>
+        <v>1.000413692648876</v>
       </c>
       <c r="F19">
-        <v>0.9058077799318728</v>
+        <v>1.005125257251485</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023614064670026</v>
+        <v>1.040460141629402</v>
       </c>
       <c r="J19">
-        <v>0.9698601506100687</v>
+        <v>1.008610087358446</v>
       </c>
       <c r="K19">
-        <v>0.9861471125603413</v>
+        <v>1.01807194501952</v>
       </c>
       <c r="L19">
-        <v>0.9546352493812711</v>
+        <v>1.014160783927542</v>
       </c>
       <c r="M19">
-        <v>0.9214032722882793</v>
+        <v>1.018792032774424</v>
       </c>
       <c r="N19">
-        <v>0.9712374632684493</v>
+        <v>1.010042429371689</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9362828255270672</v>
+        <v>0.9792390470101543</v>
       </c>
       <c r="D20">
-        <v>0.9686663238662628</v>
+        <v>1.003176416807058</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.9986050361920512</v>
       </c>
       <c r="F20">
-        <v>0.9001790439728812</v>
+        <v>1.00323831456182</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02214414530099</v>
+        <v>1.039939934698816</v>
       </c>
       <c r="J20">
-        <v>0.9665118994083918</v>
+        <v>1.007594411354028</v>
       </c>
       <c r="K20">
-        <v>0.9832834612520184</v>
+        <v>1.017163641764035</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.012672458786375</v>
       </c>
       <c r="M20">
-        <v>0.916237886491182</v>
+        <v>1.017224460114584</v>
       </c>
       <c r="N20">
-        <v>0.967884457166016</v>
+        <v>1.009025310990845</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9218176599557804</v>
+        <v>0.9735745583573859</v>
       </c>
       <c r="D21">
-        <v>0.9575996258548632</v>
+        <v>0.9991443635531586</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9926161471290164</v>
       </c>
       <c r="F21">
-        <v>0.8807479882951736</v>
+        <v>0.9969860809208863</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017068015771199</v>
+        <v>1.038194979268588</v>
       </c>
       <c r="J21">
-        <v>0.9549913126538813</v>
+        <v>1.004220225785518</v>
       </c>
       <c r="K21">
-        <v>0.9734314152827747</v>
+        <v>1.01414196438144</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>1.007738772294456</v>
       </c>
       <c r="M21">
-        <v>0.8984054539837621</v>
+        <v>1.012024778781757</v>
       </c>
       <c r="N21">
-        <v>0.9563475098568847</v>
+        <v>1.005646333691803</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9120256128030698</v>
+        <v>0.9699212943300284</v>
       </c>
       <c r="D22">
-        <v>0.9501241874762353</v>
+        <v>0.996547034177436</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9887626857146452</v>
       </c>
       <c r="F22">
-        <v>0.8675020737073983</v>
+        <v>0.992959998750882</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013612624511291</v>
+        <v>1.037055248318476</v>
       </c>
       <c r="J22">
-        <v>0.9471791493248549</v>
+        <v>1.002040888872806</v>
       </c>
       <c r="K22">
-        <v>0.9667529615572205</v>
+        <v>1.012187206752587</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>1.004560091988389</v>
       </c>
       <c r="M22">
-        <v>0.8862507241070623</v>
+        <v>1.008672221501378</v>
       </c>
       <c r="N22">
-        <v>0.9485242523598632</v>
+        <v>1.003463901870701</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9172902095308578</v>
+        <v>0.9718669645287881</v>
       </c>
       <c r="D23">
-        <v>0.9541415696586916</v>
+        <v>0.99793000635162</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9908141323278801</v>
       </c>
       <c r="F23">
-        <v>0.8746336513798855</v>
+        <v>0.9951036414888526</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015472081072148</v>
+        <v>1.03766357660499</v>
       </c>
       <c r="J23">
-        <v>0.951380545204445</v>
+        <v>1.003201852932089</v>
       </c>
       <c r="K23">
-        <v>0.9703443383759358</v>
+        <v>1.013228816877908</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>1.006252697966644</v>
       </c>
       <c r="M23">
-        <v>0.8927945190704489</v>
+        <v>1.01045764754238</v>
       </c>
       <c r="N23">
-        <v>0.952731614703509</v>
+        <v>1.004626514632113</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9365150124179714</v>
+        <v>0.9793325233216733</v>
       </c>
       <c r="D24">
-        <v>0.9688441713960021</v>
+        <v>1.003242999178224</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9987040160365671</v>
       </c>
       <c r="F24">
-        <v>0.9004897548338761</v>
+        <v>1.003341594019327</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02222530561513</v>
+        <v>1.03996848766996</v>
       </c>
       <c r="J24">
-        <v>0.9666966118160659</v>
+        <v>1.00765003657661</v>
       </c>
       <c r="K24">
-        <v>0.9834414385772914</v>
+        <v>1.017213402463859</v>
       </c>
       <c r="L24">
-        <v>0.953371659644245</v>
+        <v>1.012753928893918</v>
       </c>
       <c r="M24">
-        <v>0.916523027656113</v>
+        <v>1.017310280549773</v>
       </c>
       <c r="N24">
-        <v>0.968069431886496</v>
+        <v>1.009081015207623</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.956390139536877</v>
+        <v>0.9876251283389955</v>
       </c>
       <c r="D25">
-        <v>0.9840890025346085</v>
+        <v>1.009154620860235</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>1.007505896571808</v>
       </c>
       <c r="F25">
-        <v>0.9269691048021766</v>
+        <v>1.012518469972627</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02912687491227</v>
+        <v>1.04246677478904</v>
       </c>
       <c r="J25">
-        <v>0.9824798767182907</v>
+        <v>1.012576255830311</v>
       </c>
       <c r="K25">
-        <v>0.9969394422311005</v>
+        <v>1.021612466126526</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>1.019988799965791</v>
       </c>
       <c r="M25">
-        <v>0.9408178416777238</v>
+        <v>1.024925512025708</v>
       </c>
       <c r="N25">
-        <v>0.9838751108352479</v>
+        <v>1.01401423025771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9939688543382281</v>
+        <v>1.023144274002821</v>
       </c>
       <c r="D2">
-        <v>1.013682019491792</v>
+        <v>1.027948343873756</v>
       </c>
       <c r="E2">
-        <v>1.014269902715737</v>
+        <v>1.048933383778735</v>
       </c>
       <c r="F2">
-        <v>1.019559981456679</v>
+        <v>1.053312928831357</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044326119001545</v>
+        <v>1.031846365469549</v>
       </c>
       <c r="J2">
-        <v>1.016331464611271</v>
+        <v>1.028326142833222</v>
       </c>
       <c r="K2">
-        <v>1.024953976904949</v>
+        <v>1.030766586132215</v>
       </c>
       <c r="L2">
-        <v>1.025533951358571</v>
+        <v>1.05169184797233</v>
       </c>
       <c r="M2">
-        <v>1.03075337782382</v>
+        <v>1.056059243142115</v>
       </c>
       <c r="N2">
-        <v>1.017774771865861</v>
+        <v>1.029786483906703</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9984308664386184</v>
+        <v>1.02406641753282</v>
       </c>
       <c r="D3">
-        <v>1.016868065648807</v>
+        <v>1.028611407756399</v>
       </c>
       <c r="E3">
-        <v>1.019045467892419</v>
+        <v>1.050019366910669</v>
       </c>
       <c r="F3">
-        <v>1.024525284950849</v>
+        <v>1.054426690783179</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045602876962267</v>
+        <v>1.032022223477846</v>
       </c>
       <c r="J3">
-        <v>1.018964399211448</v>
+        <v>1.02888678057092</v>
       </c>
       <c r="K3">
-        <v>1.027289571529783</v>
+        <v>1.031237873599795</v>
       </c>
       <c r="L3">
-        <v>1.029440322671188</v>
+        <v>1.052589268111795</v>
       </c>
       <c r="M3">
-        <v>1.034853689849682</v>
+        <v>1.056985254471216</v>
       </c>
       <c r="N3">
-        <v>1.020411445535178</v>
+        <v>1.030347917814294</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001255257032392</v>
+        <v>1.024663107842104</v>
       </c>
       <c r="D4">
-        <v>1.018885103962251</v>
+        <v>1.029040107192182</v>
       </c>
       <c r="E4">
-        <v>1.022076703224266</v>
+        <v>1.050722910726546</v>
       </c>
       <c r="F4">
-        <v>1.0276740836887</v>
+        <v>1.055147912219719</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046396317642034</v>
+        <v>1.032134177949509</v>
       </c>
       <c r="J4">
-        <v>1.020626907619684</v>
+        <v>1.029248952418397</v>
       </c>
       <c r="K4">
-        <v>1.028760822665716</v>
+        <v>1.03154180110921</v>
       </c>
       <c r="L4">
-        <v>1.031915787884321</v>
+        <v>1.053170204136532</v>
       </c>
       <c r="M4">
-        <v>1.037449597235321</v>
+        <v>1.057584399103064</v>
       </c>
       <c r="N4">
-        <v>1.022076314896046</v>
+        <v>1.030710603987337</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002428124667954</v>
+        <v>1.024913956171414</v>
       </c>
       <c r="D5">
-        <v>1.019722723008026</v>
+        <v>1.029220248054918</v>
       </c>
       <c r="E5">
-        <v>1.023337485644302</v>
+        <v>1.051018881344826</v>
       </c>
       <c r="F5">
-        <v>1.028983074216346</v>
+        <v>1.055451243322834</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04672221718998</v>
+        <v>1.032180803127742</v>
       </c>
       <c r="J5">
-        <v>1.021316270541593</v>
+        <v>1.029401065490792</v>
       </c>
       <c r="K5">
-        <v>1.029370017193286</v>
+        <v>1.031669325487313</v>
       </c>
       <c r="L5">
-        <v>1.032944426617158</v>
+        <v>1.053414488019574</v>
       </c>
       <c r="M5">
-        <v>1.038527687729439</v>
+        <v>1.05783626792128</v>
       </c>
       <c r="N5">
-        <v>1.022766656792375</v>
+        <v>1.030862933077741</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002624218696941</v>
+        <v>1.024956074672977</v>
       </c>
       <c r="D6">
-        <v>1.019862765379343</v>
+        <v>1.029250489513802</v>
       </c>
       <c r="E6">
-        <v>1.023548397388412</v>
+        <v>1.05106858787943</v>
       </c>
       <c r="F6">
-        <v>1.029202009921442</v>
+        <v>1.055502181539247</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04677649249034</v>
+        <v>1.032188605852745</v>
       </c>
       <c r="J6">
-        <v>1.021431465749998</v>
+        <v>1.029426597480541</v>
       </c>
       <c r="K6">
-        <v>1.029471764579197</v>
+        <v>1.031690722896419</v>
       </c>
       <c r="L6">
-        <v>1.033116445922882</v>
+        <v>1.053455507772508</v>
       </c>
       <c r="M6">
-        <v>1.038707941638426</v>
+        <v>1.057878557112459</v>
       </c>
       <c r="N6">
-        <v>1.022882015591189</v>
+        <v>1.030888501325845</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001270985257939</v>
+        <v>1.02466645969173</v>
       </c>
       <c r="D7">
-        <v>1.018896336499983</v>
+        <v>1.029042514576351</v>
       </c>
       <c r="E7">
-        <v>1.022093602396499</v>
+        <v>1.05072686471184</v>
       </c>
       <c r="F7">
-        <v>1.027691631755587</v>
+        <v>1.055151964835958</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046400702222452</v>
+        <v>1.032134802688976</v>
       </c>
       <c r="J7">
-        <v>1.020636156079007</v>
+        <v>1.029250985527376</v>
       </c>
       <c r="K7">
-        <v>1.028768999030738</v>
+        <v>1.031543506066858</v>
       </c>
       <c r="L7">
-        <v>1.031929579356785</v>
+        <v>1.053173468040747</v>
       </c>
       <c r="M7">
-        <v>1.037464054094918</v>
+        <v>1.057587764632598</v>
       </c>
       <c r="N7">
-        <v>1.022085576489242</v>
+        <v>1.030712639983563</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9954901529966499</v>
+        <v>1.023455915934877</v>
       </c>
       <c r="D8">
-        <v>1.014768180809995</v>
+        <v>1.028172500564558</v>
       </c>
       <c r="E8">
-        <v>1.015896355530638</v>
+        <v>1.049300222715544</v>
       </c>
       <c r="F8">
-        <v>1.021251655689843</v>
+        <v>1.053689217242564</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044764481251823</v>
+        <v>1.031906177597411</v>
       </c>
       <c r="J8">
-        <v>1.017229990079905</v>
+        <v>1.028515736406392</v>
       </c>
       <c r="K8">
-        <v>1.02575175560354</v>
+        <v>1.0309260720566</v>
       </c>
       <c r="L8">
-        <v>1.026865221184214</v>
+        <v>1.051995084350573</v>
       </c>
       <c r="M8">
-        <v>1.032151253269894</v>
+        <v>1.056372202404226</v>
       </c>
       <c r="N8">
-        <v>1.018674573343729</v>
+        <v>1.029976346724493</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9847968089967264</v>
+        <v>1.021322827432473</v>
       </c>
       <c r="D9">
-        <v>1.007137374365138</v>
+        <v>1.026636820088811</v>
       </c>
       <c r="E9">
-        <v>1.004499052102114</v>
+        <v>1.046792745524458</v>
       </c>
       <c r="F9">
-        <v>1.00938520339319</v>
+        <v>1.051115843927727</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041622737821396</v>
+        <v>1.03148926469386</v>
       </c>
       <c r="J9">
-        <v>1.010898095023594</v>
+        <v>1.027215584213505</v>
       </c>
       <c r="K9">
-        <v>1.020115704378372</v>
+        <v>1.029830247372485</v>
       </c>
       <c r="L9">
-        <v>1.017519554633258</v>
+        <v>1.049920513317484</v>
       </c>
       <c r="M9">
-        <v>1.022327825520547</v>
+        <v>1.054229887711196</v>
       </c>
       <c r="N9">
-        <v>1.01233368627016</v>
+        <v>1.028674348166363</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9772889047337026</v>
+        <v>1.019900837171158</v>
       </c>
       <c r="D10">
-        <v>1.001787665574964</v>
+        <v>1.025611354347508</v>
       </c>
       <c r="E10">
-        <v>0.9965412123346269</v>
+        <v>1.045125445837108</v>
       </c>
       <c r="F10">
-        <v>1.001084441966684</v>
+        <v>1.049403087737113</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03934240607482</v>
+        <v>1.031201913128832</v>
       </c>
       <c r="J10">
-        <v>1.006433501235505</v>
+        <v>1.026345799907758</v>
       </c>
       <c r="K10">
-        <v>1.016124718008583</v>
+        <v>1.029094485635189</v>
       </c>
       <c r="L10">
-        <v>1.010973198344191</v>
+        <v>1.048538754000443</v>
       </c>
       <c r="M10">
-        <v>1.01543414404498</v>
+        <v>1.052801472361968</v>
       </c>
       <c r="N10">
-        <v>1.007862752246795</v>
+        <v>1.027803328667136</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9739386620449473</v>
+        <v>1.019285123478586</v>
       </c>
       <c r="D11">
-        <v>0.9994033673649929</v>
+        <v>1.025166933024369</v>
       </c>
       <c r="E11">
-        <v>0.9930005800058186</v>
+        <v>1.044404521445097</v>
       </c>
       <c r="F11">
-        <v>0.9973876019460469</v>
+        <v>1.048662118800325</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038307978400482</v>
+        <v>1.031075261802478</v>
       </c>
       <c r="J11">
-        <v>1.004437301828259</v>
+        <v>1.025968466792798</v>
       </c>
       <c r="K11">
-        <v>1.014336544081421</v>
+        <v>1.028774666694473</v>
       </c>
       <c r="L11">
-        <v>1.008055713415921</v>
+        <v>1.047940745142091</v>
       </c>
       <c r="M11">
-        <v>1.012358953001376</v>
+        <v>1.052182907863893</v>
       </c>
       <c r="N11">
-        <v>1.005863718007424</v>
+        <v>1.027425459695872</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9726784528939708</v>
+        <v>1.019056423139621</v>
       </c>
       <c r="D12">
-        <v>0.9985070278967439</v>
+        <v>1.025001798027437</v>
       </c>
       <c r="E12">
-        <v>0.9916703039186012</v>
+        <v>1.044136892492346</v>
       </c>
       <c r="F12">
-        <v>0.995998090675157</v>
+        <v>1.048386990118093</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037916407495847</v>
+        <v>1.031027883901817</v>
       </c>
       <c r="J12">
-        <v>1.003685871706482</v>
+        <v>1.02582820231148</v>
       </c>
       <c r="K12">
-        <v>1.013662886900563</v>
+        <v>1.028655687783665</v>
       </c>
       <c r="L12">
-        <v>1.006958846830626</v>
+        <v>1.047718663530481</v>
       </c>
       <c r="M12">
-        <v>1.011202364676772</v>
+        <v>1.051953137985194</v>
       </c>
       <c r="N12">
-        <v>1.005111220768683</v>
+        <v>1.027284996022902</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9729495007285854</v>
+        <v>1.019105479988269</v>
       </c>
       <c r="D13">
-        <v>0.9986997888245557</v>
+        <v>1.025037222611758</v>
       </c>
       <c r="E13">
-        <v>0.9919563520700319</v>
+        <v>1.044194292819458</v>
       </c>
       <c r="F13">
-        <v>0.996296900745657</v>
+        <v>1.048446001619039</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038000737469697</v>
+        <v>1.03103806172665</v>
       </c>
       <c r="J13">
-        <v>1.003847514634942</v>
+        <v>1.025858294312931</v>
       </c>
       <c r="K13">
-        <v>1.013807823495673</v>
+        <v>1.028681217474295</v>
       </c>
       <c r="L13">
-        <v>1.007194737358801</v>
+        <v>1.047766298728825</v>
       </c>
       <c r="M13">
-        <v>1.011451118174066</v>
+        <v>1.052002424739318</v>
       </c>
       <c r="N13">
-        <v>1.005273093248643</v>
+        <v>1.027315130758447</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9738348199054921</v>
+        <v>1.019266218970168</v>
       </c>
       <c r="D14">
-        <v>0.9993294971407786</v>
+        <v>1.025153284072835</v>
       </c>
       <c r="E14">
-        <v>0.9928909328907211</v>
+        <v>1.044382396000658</v>
       </c>
       <c r="F14">
-        <v>0.9972730834909967</v>
+        <v>1.048639374533298</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038275762379</v>
+        <v>1.031071352340196</v>
       </c>
       <c r="J14">
-        <v>1.004375394362712</v>
+        <v>1.02595687464909</v>
       </c>
       <c r="K14">
-        <v>1.014281054727934</v>
+        <v>1.028764835608023</v>
       </c>
       <c r="L14">
-        <v>1.007965319439011</v>
+        <v>1.04792238687778</v>
       </c>
       <c r="M14">
-        <v>1.012263645983863</v>
+        <v>1.052163915165448</v>
       </c>
       <c r="N14">
-        <v>1.005801722626175</v>
+        <v>1.02741385108999</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.974378176285184</v>
+        <v>1.0193652559936</v>
       </c>
       <c r="D15">
-        <v>0.9997160467344558</v>
+        <v>1.025224785833436</v>
       </c>
       <c r="E15">
-        <v>0.9934647269869552</v>
+        <v>1.044498313050421</v>
       </c>
       <c r="F15">
-        <v>0.9978723475619835</v>
+        <v>1.048758531246048</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038444233384389</v>
+        <v>1.031091819548109</v>
       </c>
       <c r="J15">
-        <v>1.004699304442317</v>
+        <v>1.026017599198894</v>
       </c>
       <c r="K15">
-        <v>1.01457136258678</v>
+        <v>1.028816331152051</v>
       </c>
       <c r="L15">
-        <v>1.008438330795227</v>
+        <v>1.048018563971522</v>
       </c>
       <c r="M15">
-        <v>1.012762348697935</v>
+        <v>1.05226341376173</v>
       </c>
       <c r="N15">
-        <v>1.006126092695247</v>
+        <v>1.02747466187562</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9775090853866094</v>
+        <v>1.019941700473364</v>
       </c>
       <c r="D16">
-        <v>1.001944431365087</v>
+        <v>1.025640841052704</v>
       </c>
       <c r="E16">
-        <v>0.9967741207854514</v>
+        <v>1.045173312870014</v>
       </c>
       <c r="F16">
-        <v>1.001327550337115</v>
+        <v>1.049452277444977</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039410043959974</v>
+        <v>1.031210271699734</v>
       </c>
       <c r="J16">
-        <v>1.006564614261021</v>
+        <v>1.026370827342081</v>
       </c>
       <c r="K16">
-        <v>1.016242092224378</v>
+        <v>1.029115685131479</v>
       </c>
       <c r="L16">
-        <v>1.011165014961222</v>
+        <v>1.048578448253328</v>
       </c>
       <c r="M16">
-        <v>1.015636269351196</v>
+        <v>1.052842523389471</v>
       </c>
       <c r="N16">
-        <v>1.007994051467847</v>
+        <v>1.027828391643287</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9794458535346565</v>
+        <v>1.020303293909338</v>
       </c>
       <c r="D17">
-        <v>1.003323725137947</v>
+        <v>1.025901718462497</v>
       </c>
       <c r="E17">
-        <v>0.9988240254646756</v>
+        <v>1.045596997561329</v>
       </c>
       <c r="F17">
-        <v>1.003466814203972</v>
+        <v>1.049887624461391</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040003094131173</v>
+        <v>1.031283977943708</v>
       </c>
       <c r="J17">
-        <v>1.007717473708631</v>
+        <v>1.026592208172249</v>
       </c>
       <c r="K17">
-        <v>1.017273727311319</v>
+        <v>1.029303133410072</v>
       </c>
       <c r="L17">
-        <v>1.012852705239772</v>
+        <v>1.048929729825929</v>
       </c>
       <c r="M17">
-        <v>1.017414329437266</v>
+        <v>1.053205769995428</v>
       </c>
       <c r="N17">
-        <v>1.009148548108106</v>
+        <v>1.028050086859626</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9805660212766166</v>
+        <v>1.020514206894433</v>
       </c>
       <c r="D18">
-        <v>1.004121734936122</v>
+        <v>1.026053846339746</v>
       </c>
       <c r="E18">
-        <v>1.000010612779015</v>
+        <v>1.045844224792678</v>
       </c>
       <c r="F18">
-        <v>1.004704782101768</v>
+        <v>1.050141619240571</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040344492132676</v>
+        <v>1.031326754719062</v>
       </c>
       <c r="J18">
-        <v>1.008383873258047</v>
+        <v>1.02672126724436</v>
       </c>
       <c r="K18">
-        <v>1.0178696991343</v>
+        <v>1.02941235016353</v>
       </c>
       <c r="L18">
-        <v>1.013829163035076</v>
+        <v>1.049134655558394</v>
       </c>
       <c r="M18">
-        <v>1.018442796060792</v>
+        <v>1.053417640638177</v>
       </c>
       <c r="N18">
-        <v>1.00981589402132</v>
+        <v>1.028179329210423</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9809463806175956</v>
+        <v>1.020586123036276</v>
       </c>
       <c r="D19">
-        <v>1.004392746601854</v>
+        <v>1.026105711618526</v>
       </c>
       <c r="E19">
-        <v>1.000413692648876</v>
+        <v>1.045928539698507</v>
       </c>
       <c r="F19">
-        <v>1.005125257251485</v>
+        <v>1.050228235786598</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040460141629402</v>
+        <v>1.031341304039795</v>
       </c>
       <c r="J19">
-        <v>1.008610087358446</v>
+        <v>1.026765261394473</v>
       </c>
       <c r="K19">
-        <v>1.01807194501952</v>
+        <v>1.029449570104548</v>
       </c>
       <c r="L19">
-        <v>1.014160783927542</v>
+        <v>1.049204534875285</v>
       </c>
       <c r="M19">
-        <v>1.018792032774424</v>
+        <v>1.05348988220486</v>
       </c>
       <c r="N19">
-        <v>1.010042429371689</v>
+        <v>1.028223385837275</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9792390470101543</v>
+        <v>1.020264498181097</v>
       </c>
       <c r="D20">
-        <v>1.003176416807058</v>
+        <v>1.025873732656031</v>
       </c>
       <c r="E20">
-        <v>0.9986050361920512</v>
+        <v>1.045551529950379</v>
       </c>
       <c r="F20">
-        <v>1.00323831456182</v>
+        <v>1.049840909201842</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039939934698816</v>
+        <v>1.031276092178451</v>
       </c>
       <c r="J20">
-        <v>1.007594411354028</v>
+        <v>1.026568463197488</v>
       </c>
       <c r="K20">
-        <v>1.017163641764035</v>
+        <v>1.029283034251339</v>
       </c>
       <c r="L20">
-        <v>1.012672458786375</v>
+        <v>1.048892037623172</v>
       </c>
       <c r="M20">
-        <v>1.017224460114584</v>
+        <v>1.053166797583401</v>
       </c>
       <c r="N20">
-        <v>1.009025310990845</v>
+        <v>1.028026308164277</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9735745583573859</v>
+        <v>1.01921888525547</v>
       </c>
       <c r="D21">
-        <v>0.9991443635531586</v>
+        <v>1.025119108433195</v>
       </c>
       <c r="E21">
-        <v>0.9926161471290164</v>
+        <v>1.044327000037211</v>
       </c>
       <c r="F21">
-        <v>0.9969860809208863</v>
+        <v>1.048582428263328</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038194979268588</v>
+        <v>1.031061558299135</v>
       </c>
       <c r="J21">
-        <v>1.004220225785518</v>
+        <v>1.025927848122735</v>
       </c>
       <c r="K21">
-        <v>1.01414196438144</v>
+        <v>1.028740217222641</v>
       </c>
       <c r="L21">
-        <v>1.007738772294456</v>
+        <v>1.047876421551136</v>
       </c>
       <c r="M21">
-        <v>1.012024778781757</v>
+        <v>1.052116360464834</v>
       </c>
       <c r="N21">
-        <v>1.005646333691803</v>
+        <v>1.027384783342638</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9699212943300284</v>
+        <v>1.018561485336416</v>
       </c>
       <c r="D22">
-        <v>0.996547034177436</v>
+        <v>1.024644316260491</v>
       </c>
       <c r="E22">
-        <v>0.9887626857146452</v>
+        <v>1.043557983227456</v>
       </c>
       <c r="F22">
-        <v>0.992959998750882</v>
+        <v>1.047791750987705</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037055248318476</v>
+        <v>1.030924740397219</v>
       </c>
       <c r="J22">
-        <v>1.002040888872806</v>
+        <v>1.025524454086466</v>
       </c>
       <c r="K22">
-        <v>1.012187206752587</v>
+        <v>1.028397862903947</v>
       </c>
       <c r="L22">
-        <v>1.004560091988389</v>
+        <v>1.047238126756622</v>
       </c>
       <c r="M22">
-        <v>1.008672221501378</v>
+        <v>1.051455865770975</v>
       </c>
       <c r="N22">
-        <v>1.003463901870701</v>
+        <v>1.026980816440568</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9718669645287881</v>
+        <v>1.018909983553503</v>
       </c>
       <c r="D23">
-        <v>0.99793000635162</v>
+        <v>1.024896043471541</v>
       </c>
       <c r="E23">
-        <v>0.9908141323278801</v>
+        <v>1.043965568833104</v>
       </c>
       <c r="F23">
-        <v>0.9951036414888526</v>
+        <v>1.048210848980228</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03766357660499</v>
+        <v>1.030997453114189</v>
       </c>
       <c r="J23">
-        <v>1.003201852932089</v>
+        <v>1.025738358882258</v>
       </c>
       <c r="K23">
-        <v>1.013228816877908</v>
+        <v>1.028579451979207</v>
       </c>
       <c r="L23">
-        <v>1.006252697966644</v>
+        <v>1.047576473900223</v>
       </c>
       <c r="M23">
-        <v>1.01045764754238</v>
+        <v>1.051806010527366</v>
       </c>
       <c r="N23">
-        <v>1.004626514632113</v>
+        <v>1.027195025005705</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9793325233216733</v>
+        <v>1.020282028295601</v>
       </c>
       <c r="D24">
-        <v>1.003242999178224</v>
+        <v>1.025886378353295</v>
       </c>
       <c r="E24">
-        <v>0.9987040160365671</v>
+        <v>1.045572074500259</v>
       </c>
       <c r="F24">
-        <v>1.003341594019327</v>
+        <v>1.049862017618209</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03996848766996</v>
+        <v>1.031279656080133</v>
       </c>
       <c r="J24">
-        <v>1.00765003657661</v>
+        <v>1.026579192741524</v>
       </c>
       <c r="K24">
-        <v>1.017213402463859</v>
+        <v>1.029292116562669</v>
       </c>
       <c r="L24">
-        <v>1.012753928893918</v>
+        <v>1.048909069017031</v>
       </c>
       <c r="M24">
-        <v>1.017310280549773</v>
+        <v>1.053184407554058</v>
       </c>
       <c r="N24">
-        <v>1.009081015207623</v>
+        <v>1.028037052945497</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9876251283389955</v>
+        <v>1.021874272667048</v>
       </c>
       <c r="D25">
-        <v>1.009154620860235</v>
+        <v>1.027034131466416</v>
       </c>
       <c r="E25">
-        <v>1.007505896571808</v>
+        <v>1.047440222649674</v>
       </c>
       <c r="F25">
-        <v>1.012518469972627</v>
+        <v>1.051780625904787</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04246677478904</v>
+        <v>1.031598707678006</v>
       </c>
       <c r="J25">
-        <v>1.012576255830311</v>
+        <v>1.027552239436629</v>
       </c>
       <c r="K25">
-        <v>1.021612466126526</v>
+        <v>1.030114466636552</v>
       </c>
       <c r="L25">
-        <v>1.019988799965791</v>
+        <v>1.050456613821585</v>
       </c>
       <c r="M25">
-        <v>1.024925512025708</v>
+        <v>1.054783765262388</v>
       </c>
       <c r="N25">
-        <v>1.01401423025771</v>
+        <v>1.029011481478518</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023144274002821</v>
+        <v>0.9939688543382282</v>
       </c>
       <c r="D2">
-        <v>1.027948343873756</v>
+        <v>1.013682019491792</v>
       </c>
       <c r="E2">
-        <v>1.048933383778735</v>
+        <v>1.014269902715737</v>
       </c>
       <c r="F2">
-        <v>1.053312928831357</v>
+        <v>1.019559981456679</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031846365469549</v>
+        <v>1.044326119001545</v>
       </c>
       <c r="J2">
-        <v>1.028326142833222</v>
+        <v>1.016331464611271</v>
       </c>
       <c r="K2">
-        <v>1.030766586132215</v>
+        <v>1.024953976904949</v>
       </c>
       <c r="L2">
-        <v>1.05169184797233</v>
+        <v>1.025533951358571</v>
       </c>
       <c r="M2">
-        <v>1.056059243142115</v>
+        <v>1.03075337782382</v>
       </c>
       <c r="N2">
-        <v>1.029786483906703</v>
+        <v>1.017774771865861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02406641753282</v>
+        <v>0.9984308664386181</v>
       </c>
       <c r="D3">
-        <v>1.028611407756399</v>
+        <v>1.016868065648807</v>
       </c>
       <c r="E3">
-        <v>1.050019366910669</v>
+        <v>1.019045467892419</v>
       </c>
       <c r="F3">
-        <v>1.054426690783179</v>
+        <v>1.024525284950849</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032022223477846</v>
+        <v>1.045602876962267</v>
       </c>
       <c r="J3">
-        <v>1.02888678057092</v>
+        <v>1.018964399211448</v>
       </c>
       <c r="K3">
-        <v>1.031237873599795</v>
+        <v>1.027289571529783</v>
       </c>
       <c r="L3">
-        <v>1.052589268111795</v>
+        <v>1.029440322671188</v>
       </c>
       <c r="M3">
-        <v>1.056985254471216</v>
+        <v>1.034853689849682</v>
       </c>
       <c r="N3">
-        <v>1.030347917814294</v>
+        <v>1.020411445535178</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024663107842104</v>
+        <v>1.001255257032393</v>
       </c>
       <c r="D4">
-        <v>1.029040107192182</v>
+        <v>1.018885103962252</v>
       </c>
       <c r="E4">
-        <v>1.050722910726546</v>
+        <v>1.022076703224266</v>
       </c>
       <c r="F4">
-        <v>1.055147912219719</v>
+        <v>1.0276740836887</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032134177949509</v>
+        <v>1.046396317642035</v>
       </c>
       <c r="J4">
-        <v>1.029248952418397</v>
+        <v>1.020626907619685</v>
       </c>
       <c r="K4">
-        <v>1.03154180110921</v>
+        <v>1.028760822665717</v>
       </c>
       <c r="L4">
-        <v>1.053170204136532</v>
+        <v>1.031915787884321</v>
       </c>
       <c r="M4">
-        <v>1.057584399103064</v>
+        <v>1.037449597235321</v>
       </c>
       <c r="N4">
-        <v>1.030710603987337</v>
+        <v>1.022076314896047</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024913956171414</v>
+        <v>1.002428124667953</v>
       </c>
       <c r="D5">
-        <v>1.029220248054918</v>
+        <v>1.019722723008025</v>
       </c>
       <c r="E5">
-        <v>1.051018881344826</v>
+        <v>1.023337485644302</v>
       </c>
       <c r="F5">
-        <v>1.055451243322834</v>
+        <v>1.028983074216345</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032180803127742</v>
+        <v>1.04672221718998</v>
       </c>
       <c r="J5">
-        <v>1.029401065490792</v>
+        <v>1.021316270541592</v>
       </c>
       <c r="K5">
-        <v>1.031669325487313</v>
+        <v>1.029370017193286</v>
       </c>
       <c r="L5">
-        <v>1.053414488019574</v>
+        <v>1.032944426617158</v>
       </c>
       <c r="M5">
-        <v>1.05783626792128</v>
+        <v>1.038527687729438</v>
       </c>
       <c r="N5">
-        <v>1.030862933077741</v>
+        <v>1.022766656792375</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024956074672977</v>
+        <v>1.002624218696941</v>
       </c>
       <c r="D6">
-        <v>1.029250489513802</v>
+        <v>1.019862765379343</v>
       </c>
       <c r="E6">
-        <v>1.05106858787943</v>
+        <v>1.023548397388412</v>
       </c>
       <c r="F6">
-        <v>1.055502181539247</v>
+        <v>1.029202009921442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032188605852745</v>
+        <v>1.04677649249034</v>
       </c>
       <c r="J6">
-        <v>1.029426597480541</v>
+        <v>1.021431465749998</v>
       </c>
       <c r="K6">
-        <v>1.031690722896419</v>
+        <v>1.029471764579197</v>
       </c>
       <c r="L6">
-        <v>1.053455507772508</v>
+        <v>1.033116445922882</v>
       </c>
       <c r="M6">
-        <v>1.057878557112459</v>
+        <v>1.038707941638426</v>
       </c>
       <c r="N6">
-        <v>1.030888501325845</v>
+        <v>1.02288201559119</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02466645969173</v>
+        <v>1.001270985257939</v>
       </c>
       <c r="D7">
-        <v>1.029042514576351</v>
+        <v>1.018896336499983</v>
       </c>
       <c r="E7">
-        <v>1.05072686471184</v>
+        <v>1.022093602396499</v>
       </c>
       <c r="F7">
-        <v>1.055151964835958</v>
+        <v>1.027691631755586</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032134802688976</v>
+        <v>1.046400702222451</v>
       </c>
       <c r="J7">
-        <v>1.029250985527376</v>
+        <v>1.020636156079007</v>
       </c>
       <c r="K7">
-        <v>1.031543506066858</v>
+        <v>1.028768999030738</v>
       </c>
       <c r="L7">
-        <v>1.053173468040747</v>
+        <v>1.031929579356785</v>
       </c>
       <c r="M7">
-        <v>1.057587764632598</v>
+        <v>1.037464054094918</v>
       </c>
       <c r="N7">
-        <v>1.030712639983563</v>
+        <v>1.022085576489243</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023455915934877</v>
+        <v>0.9954901529966493</v>
       </c>
       <c r="D8">
-        <v>1.028172500564558</v>
+        <v>1.014768180809994</v>
       </c>
       <c r="E8">
-        <v>1.049300222715544</v>
+        <v>1.015896355530638</v>
       </c>
       <c r="F8">
-        <v>1.053689217242564</v>
+        <v>1.021251655689843</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031906177597411</v>
+        <v>1.044764481251822</v>
       </c>
       <c r="J8">
-        <v>1.028515736406392</v>
+        <v>1.017229990079904</v>
       </c>
       <c r="K8">
-        <v>1.0309260720566</v>
+        <v>1.025751755603539</v>
       </c>
       <c r="L8">
-        <v>1.051995084350573</v>
+        <v>1.026865221184214</v>
       </c>
       <c r="M8">
-        <v>1.056372202404226</v>
+        <v>1.032151253269893</v>
       </c>
       <c r="N8">
-        <v>1.029976346724493</v>
+        <v>1.018674573343728</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021322827432473</v>
+        <v>0.9847968089967262</v>
       </c>
       <c r="D9">
-        <v>1.026636820088811</v>
+        <v>1.007137374365138</v>
       </c>
       <c r="E9">
-        <v>1.046792745524458</v>
+        <v>1.004499052102114</v>
       </c>
       <c r="F9">
-        <v>1.051115843927727</v>
+        <v>1.009385203393189</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03148926469386</v>
+        <v>1.041622737821396</v>
       </c>
       <c r="J9">
-        <v>1.027215584213505</v>
+        <v>1.010898095023594</v>
       </c>
       <c r="K9">
-        <v>1.029830247372485</v>
+        <v>1.020115704378372</v>
       </c>
       <c r="L9">
-        <v>1.049920513317484</v>
+        <v>1.017519554633258</v>
       </c>
       <c r="M9">
-        <v>1.054229887711196</v>
+        <v>1.022327825520547</v>
       </c>
       <c r="N9">
-        <v>1.028674348166363</v>
+        <v>1.01233368627016</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019900837171158</v>
+        <v>0.977288904733703</v>
       </c>
       <c r="D10">
-        <v>1.025611354347508</v>
+        <v>1.001787665574964</v>
       </c>
       <c r="E10">
-        <v>1.045125445837108</v>
+        <v>0.9965412123346271</v>
       </c>
       <c r="F10">
-        <v>1.049403087737113</v>
+        <v>1.001084441966685</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031201913128832</v>
+        <v>1.03934240607482</v>
       </c>
       <c r="J10">
-        <v>1.026345799907758</v>
+        <v>1.006433501235505</v>
       </c>
       <c r="K10">
-        <v>1.029094485635189</v>
+        <v>1.016124718008583</v>
       </c>
       <c r="L10">
-        <v>1.048538754000443</v>
+        <v>1.010973198344192</v>
       </c>
       <c r="M10">
-        <v>1.052801472361968</v>
+        <v>1.01543414404498</v>
       </c>
       <c r="N10">
-        <v>1.027803328667136</v>
+        <v>1.007862752246796</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019285123478586</v>
+        <v>0.9739386620449473</v>
       </c>
       <c r="D11">
-        <v>1.025166933024369</v>
+        <v>0.9994033673649929</v>
       </c>
       <c r="E11">
-        <v>1.044404521445097</v>
+        <v>0.9930005800058198</v>
       </c>
       <c r="F11">
-        <v>1.048662118800325</v>
+        <v>0.9973876019460479</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031075261802478</v>
+        <v>1.038307978400483</v>
       </c>
       <c r="J11">
-        <v>1.025968466792798</v>
+        <v>1.004437301828259</v>
       </c>
       <c r="K11">
-        <v>1.028774666694473</v>
+        <v>1.014336544081421</v>
       </c>
       <c r="L11">
-        <v>1.047940745142091</v>
+        <v>1.008055713415922</v>
       </c>
       <c r="M11">
-        <v>1.052182907863893</v>
+        <v>1.012358953001377</v>
       </c>
       <c r="N11">
-        <v>1.027425459695872</v>
+        <v>1.005863718007424</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019056423139621</v>
+        <v>0.972678452893971</v>
       </c>
       <c r="D12">
-        <v>1.025001798027437</v>
+        <v>0.9985070278967438</v>
       </c>
       <c r="E12">
-        <v>1.044136892492346</v>
+        <v>0.9916703039186014</v>
       </c>
       <c r="F12">
-        <v>1.048386990118093</v>
+        <v>0.9959980906751569</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031027883901817</v>
+        <v>1.037916407495847</v>
       </c>
       <c r="J12">
-        <v>1.02582820231148</v>
+        <v>1.003685871706482</v>
       </c>
       <c r="K12">
-        <v>1.028655687783665</v>
+        <v>1.013662886900563</v>
       </c>
       <c r="L12">
-        <v>1.047718663530481</v>
+        <v>1.006958846830626</v>
       </c>
       <c r="M12">
-        <v>1.051953137985194</v>
+        <v>1.011202364676772</v>
       </c>
       <c r="N12">
-        <v>1.027284996022902</v>
+        <v>1.005111220768684</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019105479988269</v>
+        <v>0.972949500728585</v>
       </c>
       <c r="D13">
-        <v>1.025037222611758</v>
+        <v>0.998699788824555</v>
       </c>
       <c r="E13">
-        <v>1.044194292819458</v>
+        <v>0.9919563520700314</v>
       </c>
       <c r="F13">
-        <v>1.048446001619039</v>
+        <v>0.9962969007456564</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03103806172665</v>
+        <v>1.038000737469697</v>
       </c>
       <c r="J13">
-        <v>1.025858294312931</v>
+        <v>1.003847514634942</v>
       </c>
       <c r="K13">
-        <v>1.028681217474295</v>
+        <v>1.013807823495673</v>
       </c>
       <c r="L13">
-        <v>1.047766298728825</v>
+        <v>1.007194737358801</v>
       </c>
       <c r="M13">
-        <v>1.052002424739318</v>
+        <v>1.011451118174066</v>
       </c>
       <c r="N13">
-        <v>1.027315130758447</v>
+        <v>1.005273093248643</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019266218970168</v>
+        <v>0.9738348199054921</v>
       </c>
       <c r="D14">
-        <v>1.025153284072835</v>
+        <v>0.9993294971407785</v>
       </c>
       <c r="E14">
-        <v>1.044382396000658</v>
+        <v>0.9928909328907213</v>
       </c>
       <c r="F14">
-        <v>1.048639374533298</v>
+        <v>0.9972730834909966</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031071352340196</v>
+        <v>1.038275762378999</v>
       </c>
       <c r="J14">
-        <v>1.02595687464909</v>
+        <v>1.004375394362712</v>
       </c>
       <c r="K14">
-        <v>1.028764835608023</v>
+        <v>1.014281054727934</v>
       </c>
       <c r="L14">
-        <v>1.04792238687778</v>
+        <v>1.007965319439011</v>
       </c>
       <c r="M14">
-        <v>1.052163915165448</v>
+        <v>1.012263645983863</v>
       </c>
       <c r="N14">
-        <v>1.02741385108999</v>
+        <v>1.005801722626175</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0193652559936</v>
+        <v>0.9743781762851841</v>
       </c>
       <c r="D15">
-        <v>1.025224785833436</v>
+        <v>0.9997160467344559</v>
       </c>
       <c r="E15">
-        <v>1.044498313050421</v>
+        <v>0.9934647269869559</v>
       </c>
       <c r="F15">
-        <v>1.048758531246048</v>
+        <v>0.9978723475619838</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031091819548109</v>
+        <v>1.038444233384389</v>
       </c>
       <c r="J15">
-        <v>1.026017599198894</v>
+        <v>1.004699304442318</v>
       </c>
       <c r="K15">
-        <v>1.028816331152051</v>
+        <v>1.01457136258678</v>
       </c>
       <c r="L15">
-        <v>1.048018563971522</v>
+        <v>1.008438330795228</v>
       </c>
       <c r="M15">
-        <v>1.05226341376173</v>
+        <v>1.012762348697935</v>
       </c>
       <c r="N15">
-        <v>1.02747466187562</v>
+        <v>1.006126092695246</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.019941700473364</v>
+        <v>0.9775090853866082</v>
       </c>
       <c r="D16">
-        <v>1.025640841052704</v>
+        <v>1.001944431365086</v>
       </c>
       <c r="E16">
-        <v>1.045173312870014</v>
+        <v>0.9967741207854508</v>
       </c>
       <c r="F16">
-        <v>1.049452277444977</v>
+        <v>1.001327550337114</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031210271699734</v>
+        <v>1.039410043959974</v>
       </c>
       <c r="J16">
-        <v>1.026370827342081</v>
+        <v>1.00656461426102</v>
       </c>
       <c r="K16">
-        <v>1.029115685131479</v>
+        <v>1.016242092224378</v>
       </c>
       <c r="L16">
-        <v>1.048578448253328</v>
+        <v>1.011165014961221</v>
       </c>
       <c r="M16">
-        <v>1.052842523389471</v>
+        <v>1.015636269351195</v>
       </c>
       <c r="N16">
-        <v>1.027828391643287</v>
+        <v>1.007994051467846</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020303293909338</v>
+        <v>0.9794458535346562</v>
       </c>
       <c r="D17">
-        <v>1.025901718462497</v>
+        <v>1.003323725137946</v>
       </c>
       <c r="E17">
-        <v>1.045596997561329</v>
+        <v>0.9988240254646754</v>
       </c>
       <c r="F17">
-        <v>1.049887624461391</v>
+        <v>1.003466814203973</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031283977943708</v>
+        <v>1.040003094131173</v>
       </c>
       <c r="J17">
-        <v>1.026592208172249</v>
+        <v>1.00771747370863</v>
       </c>
       <c r="K17">
-        <v>1.029303133410072</v>
+        <v>1.017273727311318</v>
       </c>
       <c r="L17">
-        <v>1.048929729825929</v>
+        <v>1.012852705239772</v>
       </c>
       <c r="M17">
-        <v>1.053205769995428</v>
+        <v>1.017414329437266</v>
       </c>
       <c r="N17">
-        <v>1.028050086859626</v>
+        <v>1.009148548108106</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020514206894433</v>
+        <v>0.9805660212766176</v>
       </c>
       <c r="D18">
-        <v>1.026053846339746</v>
+        <v>1.004121734936123</v>
       </c>
       <c r="E18">
-        <v>1.045844224792678</v>
+        <v>1.000010612779017</v>
       </c>
       <c r="F18">
-        <v>1.050141619240571</v>
+        <v>1.00470478210177</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031326754719062</v>
+        <v>1.040344492132677</v>
       </c>
       <c r="J18">
-        <v>1.02672126724436</v>
+        <v>1.008383873258047</v>
       </c>
       <c r="K18">
-        <v>1.02941235016353</v>
+        <v>1.017869699134301</v>
       </c>
       <c r="L18">
-        <v>1.049134655558394</v>
+        <v>1.013829163035077</v>
       </c>
       <c r="M18">
-        <v>1.053417640638177</v>
+        <v>1.018442796060793</v>
       </c>
       <c r="N18">
-        <v>1.028179329210423</v>
+        <v>1.00981589402132</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020586123036276</v>
+        <v>0.9809463806175964</v>
       </c>
       <c r="D19">
-        <v>1.026105711618526</v>
+        <v>1.004392746601855</v>
       </c>
       <c r="E19">
-        <v>1.045928539698507</v>
+        <v>1.000413692648877</v>
       </c>
       <c r="F19">
-        <v>1.050228235786598</v>
+        <v>1.005125257251485</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031341304039795</v>
+        <v>1.040460141629402</v>
       </c>
       <c r="J19">
-        <v>1.026765261394473</v>
+        <v>1.008610087358447</v>
       </c>
       <c r="K19">
-        <v>1.029449570104548</v>
+        <v>1.018071945019521</v>
       </c>
       <c r="L19">
-        <v>1.049204534875285</v>
+        <v>1.014160783927543</v>
       </c>
       <c r="M19">
-        <v>1.05348988220486</v>
+        <v>1.018792032774425</v>
       </c>
       <c r="N19">
-        <v>1.028223385837275</v>
+        <v>1.01004242937169</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020264498181097</v>
+        <v>0.9792390470101539</v>
       </c>
       <c r="D20">
-        <v>1.025873732656031</v>
+        <v>1.003176416807058</v>
       </c>
       <c r="E20">
-        <v>1.045551529950379</v>
+        <v>0.9986050361920515</v>
       </c>
       <c r="F20">
-        <v>1.049840909201842</v>
+        <v>1.00323831456182</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031276092178451</v>
+        <v>1.039939934698816</v>
       </c>
       <c r="J20">
-        <v>1.026568463197488</v>
+        <v>1.007594411354027</v>
       </c>
       <c r="K20">
-        <v>1.029283034251339</v>
+        <v>1.017163641764035</v>
       </c>
       <c r="L20">
-        <v>1.048892037623172</v>
+        <v>1.012672458786375</v>
       </c>
       <c r="M20">
-        <v>1.053166797583401</v>
+        <v>1.017224460114584</v>
       </c>
       <c r="N20">
-        <v>1.028026308164277</v>
+        <v>1.009025310990844</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.01921888525547</v>
+        <v>0.9735745583573863</v>
       </c>
       <c r="D21">
-        <v>1.025119108433195</v>
+        <v>0.9991443635531587</v>
       </c>
       <c r="E21">
-        <v>1.044327000037211</v>
+        <v>0.9926161471290169</v>
       </c>
       <c r="F21">
-        <v>1.048582428263328</v>
+        <v>0.9969860809208866</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031061558299135</v>
+        <v>1.038194979268588</v>
       </c>
       <c r="J21">
-        <v>1.025927848122735</v>
+        <v>1.004220225785518</v>
       </c>
       <c r="K21">
-        <v>1.028740217222641</v>
+        <v>1.01414196438144</v>
       </c>
       <c r="L21">
-        <v>1.047876421551136</v>
+        <v>1.007738772294456</v>
       </c>
       <c r="M21">
-        <v>1.052116360464834</v>
+        <v>1.012024778781757</v>
       </c>
       <c r="N21">
-        <v>1.027384783342638</v>
+        <v>1.005646333691803</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018561485336416</v>
+        <v>0.9699212943300287</v>
       </c>
       <c r="D22">
-        <v>1.024644316260491</v>
+        <v>0.9965470341774361</v>
       </c>
       <c r="E22">
-        <v>1.043557983227456</v>
+        <v>0.9887626857146457</v>
       </c>
       <c r="F22">
-        <v>1.047791750987705</v>
+        <v>0.9929599987508826</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030924740397219</v>
+        <v>1.037055248318476</v>
       </c>
       <c r="J22">
-        <v>1.025524454086466</v>
+        <v>1.002040888872806</v>
       </c>
       <c r="K22">
-        <v>1.028397862903947</v>
+        <v>1.012187206752588</v>
       </c>
       <c r="L22">
-        <v>1.047238126756622</v>
+        <v>1.00456009198839</v>
       </c>
       <c r="M22">
-        <v>1.051455865770975</v>
+        <v>1.008672221501378</v>
       </c>
       <c r="N22">
-        <v>1.026980816440568</v>
+        <v>1.003463901870702</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018909983553503</v>
+        <v>0.9718669645287886</v>
       </c>
       <c r="D23">
-        <v>1.024896043471541</v>
+        <v>0.997930006351621</v>
       </c>
       <c r="E23">
-        <v>1.043965568833104</v>
+        <v>0.990814132327881</v>
       </c>
       <c r="F23">
-        <v>1.048210848980228</v>
+        <v>0.9951036414888533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030997453114189</v>
+        <v>1.037663576604991</v>
       </c>
       <c r="J23">
-        <v>1.025738358882258</v>
+        <v>1.003201852932089</v>
       </c>
       <c r="K23">
-        <v>1.028579451979207</v>
+        <v>1.013228816877909</v>
       </c>
       <c r="L23">
-        <v>1.047576473900223</v>
+        <v>1.006252697966644</v>
       </c>
       <c r="M23">
-        <v>1.051806010527366</v>
+        <v>1.010457647542381</v>
       </c>
       <c r="N23">
-        <v>1.027195025005705</v>
+        <v>1.004626514632114</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020282028295601</v>
+        <v>0.9793325233216733</v>
       </c>
       <c r="D24">
-        <v>1.025886378353295</v>
+        <v>1.003242999178224</v>
       </c>
       <c r="E24">
-        <v>1.045572074500259</v>
+        <v>0.9987040160365667</v>
       </c>
       <c r="F24">
-        <v>1.049862017618209</v>
+        <v>1.003341594019326</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031279656080133</v>
+        <v>1.03996848766996</v>
       </c>
       <c r="J24">
-        <v>1.026579192741524</v>
+        <v>1.00765003657661</v>
       </c>
       <c r="K24">
-        <v>1.029292116562669</v>
+        <v>1.017213402463859</v>
       </c>
       <c r="L24">
-        <v>1.048909069017031</v>
+        <v>1.012753928893917</v>
       </c>
       <c r="M24">
-        <v>1.053184407554058</v>
+        <v>1.017310280549773</v>
       </c>
       <c r="N24">
-        <v>1.028037052945497</v>
+        <v>1.009081015207623</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021874272667048</v>
+        <v>0.9876251283389966</v>
       </c>
       <c r="D25">
-        <v>1.027034131466416</v>
+        <v>1.009154620860236</v>
       </c>
       <c r="E25">
-        <v>1.047440222649674</v>
+        <v>1.007505896571809</v>
       </c>
       <c r="F25">
-        <v>1.051780625904787</v>
+        <v>1.012518469972628</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031598707678006</v>
+        <v>1.04246677478904</v>
       </c>
       <c r="J25">
-        <v>1.027552239436629</v>
+        <v>1.012576255830312</v>
       </c>
       <c r="K25">
-        <v>1.030114466636552</v>
+        <v>1.021612466126527</v>
       </c>
       <c r="L25">
-        <v>1.050456613821585</v>
+        <v>1.019988799965792</v>
       </c>
       <c r="M25">
-        <v>1.054783765262388</v>
+        <v>1.024925512025709</v>
       </c>
       <c r="N25">
-        <v>1.029011481478518</v>
+        <v>1.014014230257712</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9939688543382282</v>
+        <v>0.9938561256943703</v>
       </c>
       <c r="D2">
-        <v>1.013682019491792</v>
+        <v>1.016469831171097</v>
       </c>
       <c r="E2">
-        <v>1.014269902715737</v>
+        <v>0.9527101846680762</v>
       </c>
       <c r="F2">
-        <v>1.019559981456679</v>
+        <v>1.013960724792192</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044326119001545</v>
+        <v>1.044874654212551</v>
       </c>
       <c r="J2">
-        <v>1.016331464611271</v>
+        <v>1.016222164828582</v>
       </c>
       <c r="K2">
-        <v>1.024953976904949</v>
+        <v>1.027704386218161</v>
       </c>
       <c r="L2">
-        <v>1.025533951358571</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.03075337782382</v>
+        <v>1.025228931356819</v>
       </c>
       <c r="N2">
-        <v>1.017774771865861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009501176681219</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028539296241645</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.030659534149562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9984308664386181</v>
+        <v>0.997369627110232</v>
       </c>
       <c r="D3">
-        <v>1.016868065648807</v>
+        <v>1.018774903821375</v>
       </c>
       <c r="E3">
-        <v>1.019045467892419</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.024525284950849</v>
+        <v>1.016892260481912</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045602876962267</v>
+        <v>1.045546892224959</v>
       </c>
       <c r="J3">
-        <v>1.018964399211448</v>
+        <v>1.017932256494997</v>
       </c>
       <c r="K3">
-        <v>1.027289571529783</v>
+        <v>1.029173062560915</v>
       </c>
       <c r="L3">
-        <v>1.029440322671188</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.034853689849682</v>
+        <v>1.027313469441532</v>
       </c>
       <c r="N3">
-        <v>1.020411445535178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010067162961342</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.030189094387136</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.031695344440394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001255257032393</v>
+        <v>0.9995991689863709</v>
       </c>
       <c r="D4">
-        <v>1.018885103962252</v>
+        <v>1.020237804789665</v>
       </c>
       <c r="E4">
-        <v>1.022076703224266</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.0276740836887</v>
+        <v>1.018760629815544</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046396317642035</v>
+        <v>1.04595808349445</v>
       </c>
       <c r="J4">
-        <v>1.020626907619685</v>
+        <v>1.019013133622687</v>
       </c>
       <c r="K4">
-        <v>1.028760822665717</v>
+        <v>1.030097962275353</v>
       </c>
       <c r="L4">
-        <v>1.031915787884321</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.037449597235321</v>
+        <v>1.028637783010628</v>
       </c>
       <c r="N4">
-        <v>1.022076314896047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010424992041906</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.031237214273608</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.032350246539971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002428124667953</v>
+        <v>1.000528301376634</v>
       </c>
       <c r="D5">
-        <v>1.019722723008025</v>
+        <v>1.02084917859627</v>
       </c>
       <c r="E5">
-        <v>1.023337485644302</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.028983074216345</v>
+        <v>1.019540337484594</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04672221718998</v>
+        <v>1.046126881689768</v>
       </c>
       <c r="J5">
-        <v>1.021316270541592</v>
+        <v>1.019463529895159</v>
       </c>
       <c r="K5">
-        <v>1.029370017193286</v>
+        <v>1.030483859926084</v>
       </c>
       <c r="L5">
-        <v>1.032944426617158</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.038527687729438</v>
+        <v>1.029189677057572</v>
       </c>
       <c r="N5">
-        <v>1.022766656792375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010574371803994</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.031674006980754</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.032630356438529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002624218696941</v>
+        <v>1.000686217593675</v>
       </c>
       <c r="D6">
-        <v>1.019862765379343</v>
+        <v>1.020955188548003</v>
       </c>
       <c r="E6">
-        <v>1.023548397388412</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.029202009921442</v>
+        <v>1.019671950558367</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04677649249034</v>
+        <v>1.046156801002741</v>
       </c>
       <c r="J6">
-        <v>1.021431465749998</v>
+        <v>1.019541245278744</v>
       </c>
       <c r="K6">
-        <v>1.029471764579197</v>
+        <v>1.030552012022618</v>
       </c>
       <c r="L6">
-        <v>1.033116445922882</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.038707941638426</v>
+        <v>1.029283079800065</v>
       </c>
       <c r="N6">
-        <v>1.02288201559119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010600454847673</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.031747929904981</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.032687378354988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001270985257939</v>
+        <v>0.999618281673009</v>
       </c>
       <c r="D7">
-        <v>1.018896336499983</v>
+        <v>1.020255962623122</v>
       </c>
       <c r="E7">
-        <v>1.022093602396499</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.027691631755586</v>
+        <v>1.01877395200733</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046400702222451</v>
+        <v>1.045965426562734</v>
       </c>
       <c r="J7">
-        <v>1.020636156079007</v>
+        <v>1.019025662619733</v>
       </c>
       <c r="K7">
-        <v>1.028768999030738</v>
+        <v>1.030112990055108</v>
       </c>
       <c r="L7">
-        <v>1.031929579356785</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.037464054094918</v>
+        <v>1.028648024434</v>
       </c>
       <c r="N7">
-        <v>1.022085576489243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010429979236766</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.031245319779438</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03238118634161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9954901529966493</v>
+        <v>0.9950607970393824</v>
       </c>
       <c r="D8">
-        <v>1.014768180809994</v>
+        <v>1.01726679431722</v>
       </c>
       <c r="E8">
-        <v>1.015896355530638</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.021251655689843</v>
+        <v>1.014960933232064</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044764481251822</v>
+        <v>1.045112864832798</v>
       </c>
       <c r="J8">
-        <v>1.017229990079904</v>
+        <v>1.016813251715072</v>
       </c>
       <c r="K8">
-        <v>1.025751755603539</v>
+        <v>1.028217847130134</v>
       </c>
       <c r="L8">
-        <v>1.026865221184214</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.032151253269893</v>
+        <v>1.025941992018766</v>
       </c>
       <c r="N8">
-        <v>1.018674573343728</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009697867055876</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.02910364528825</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031045748613713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9847968089967262</v>
+        <v>0.9866697204462652</v>
       </c>
       <c r="D9">
-        <v>1.007137374365138</v>
+        <v>1.011758380108424</v>
       </c>
       <c r="E9">
-        <v>1.004499052102114</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.009385203393189</v>
+        <v>1.008010336333836</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041622737821396</v>
+        <v>1.043417756228562</v>
       </c>
       <c r="J9">
-        <v>1.010898095023594</v>
+        <v>1.012702149108176</v>
       </c>
       <c r="K9">
-        <v>1.020115704378372</v>
+        <v>1.024663523504972</v>
       </c>
       <c r="L9">
-        <v>1.017519554633258</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.022327825520547</v>
+        <v>1.020974774677727</v>
       </c>
       <c r="N9">
-        <v>1.01233368627016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008336807646277</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.025172351100922</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.028529344119631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.977288904733703</v>
+        <v>0.9809151574675039</v>
       </c>
       <c r="D10">
-        <v>1.001787665574964</v>
+        <v>1.007990970754884</v>
       </c>
       <c r="E10">
-        <v>0.9965412123346271</v>
+        <v>0.9361465105547284</v>
       </c>
       <c r="F10">
-        <v>1.001084441966685</v>
+        <v>1.003535270625256</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03934240607482</v>
+        <v>1.042192607945079</v>
       </c>
       <c r="J10">
-        <v>1.006433501235505</v>
+        <v>1.009906985999845</v>
       </c>
       <c r="K10">
-        <v>1.016124718008583</v>
+        <v>1.022217429249733</v>
       </c>
       <c r="L10">
-        <v>1.010973198344192</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.01543414404498</v>
+        <v>1.017840986699672</v>
       </c>
       <c r="N10">
-        <v>1.007862752246796</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007416054663725</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.022744548800534</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.026816768571697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9739386620449473</v>
+        <v>0.9790969435478345</v>
       </c>
       <c r="D11">
-        <v>0.9994033673649929</v>
+        <v>1.006830980575459</v>
       </c>
       <c r="E11">
-        <v>0.9930005800058198</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9973876019460479</v>
+        <v>1.004086431150525</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038307978400483</v>
+        <v>1.041889279838766</v>
       </c>
       <c r="J11">
-        <v>1.004437301828259</v>
+        <v>1.009365931908749</v>
       </c>
       <c r="K11">
-        <v>1.014336544081421</v>
+        <v>1.02162521421879</v>
       </c>
       <c r="L11">
-        <v>1.008055713415922</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.012358953001377</v>
+        <v>1.018931692647666</v>
       </c>
       <c r="N11">
-        <v>1.005863718007424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007270336918608</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.024051331097332</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026431264970875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.972678452893971</v>
+        <v>0.9786505411459062</v>
       </c>
       <c r="D12">
-        <v>0.9985070278967438</v>
+        <v>1.006554202199803</v>
       </c>
       <c r="E12">
-        <v>0.9916703039186014</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9959980906751569</v>
+        <v>1.005127744766781</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037916407495847</v>
+        <v>1.041852740722031</v>
       </c>
       <c r="J12">
-        <v>1.003685871706482</v>
+        <v>1.009386761160169</v>
       </c>
       <c r="K12">
-        <v>1.013662886900563</v>
+        <v>1.021556902150614</v>
       </c>
       <c r="L12">
-        <v>1.006958846830626</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.011202364676772</v>
+        <v>1.020157360266749</v>
       </c>
       <c r="N12">
-        <v>1.005111220768684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007300692233634</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.025351821431258</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.02638296507702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.972949500728585</v>
+        <v>0.9792355758584651</v>
       </c>
       <c r="D13">
-        <v>0.998699788824555</v>
+        <v>1.006948194122774</v>
       </c>
       <c r="E13">
-        <v>0.9919563520700314</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9962969007456564</v>
+        <v>1.006640669447494</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038000737469697</v>
+        <v>1.042029756896462</v>
       </c>
       <c r="J13">
-        <v>1.003847514634942</v>
+        <v>1.009849540546421</v>
       </c>
       <c r="K13">
-        <v>1.013807823495673</v>
+        <v>1.021899886503063</v>
       </c>
       <c r="L13">
-        <v>1.007194737358801</v>
+        <v>0.9483836088964247</v>
       </c>
       <c r="M13">
-        <v>1.011451118174066</v>
+        <v>1.021598130682575</v>
       </c>
       <c r="N13">
-        <v>1.005273093248643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007472566113718</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.026770912740097</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026622950249602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9738348199054921</v>
+        <v>0.9801022673962281</v>
       </c>
       <c r="D14">
-        <v>0.9993294971407785</v>
+        <v>1.007522105362787</v>
       </c>
       <c r="E14">
-        <v>0.9928909328907213</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9972730834909966</v>
+        <v>1.007886274865702</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038275762378999</v>
+        <v>1.042247169445901</v>
       </c>
       <c r="J14">
-        <v>1.004375394362712</v>
+        <v>1.010363775128577</v>
       </c>
       <c r="K14">
-        <v>1.014281054727934</v>
+        <v>1.022320331087127</v>
       </c>
       <c r="L14">
-        <v>1.007965319439011</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.012263645983863</v>
+        <v>1.022677760274811</v>
       </c>
       <c r="N14">
-        <v>1.005801722626175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00765359826922</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027799313852777</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026921665574123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9743781762851841</v>
+        <v>0.9805493961989625</v>
       </c>
       <c r="D15">
-        <v>0.9997160467344559</v>
+        <v>1.007817502923348</v>
       </c>
       <c r="E15">
-        <v>0.9934647269869559</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9978723475619838</v>
+        <v>1.008341570649141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038444233384389</v>
+        <v>1.04235149489115</v>
       </c>
       <c r="J15">
-        <v>1.004699304442318</v>
+        <v>1.01059820360749</v>
       </c>
       <c r="K15">
-        <v>1.01457136258678</v>
+        <v>1.022522366294179</v>
       </c>
       <c r="L15">
-        <v>1.008438330795228</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.012762348697935</v>
+        <v>1.023036809972554</v>
       </c>
       <c r="N15">
-        <v>1.006126092695246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007733333792526</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.028120956831954</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027070451269581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9775090853866082</v>
+        <v>0.9828611817225907</v>
       </c>
       <c r="D16">
-        <v>1.001944431365086</v>
+        <v>1.009331316301422</v>
       </c>
       <c r="E16">
-        <v>0.9967741207854508</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.001327550337114</v>
+        <v>1.009987799186695</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039410043959974</v>
+        <v>1.042851479411464</v>
       </c>
       <c r="J16">
-        <v>1.00656461426102</v>
+        <v>1.011692666424227</v>
       </c>
       <c r="K16">
-        <v>1.016242092224378</v>
+        <v>1.023497921410222</v>
       </c>
       <c r="L16">
-        <v>1.011165014961221</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.015636269351195</v>
+        <v>1.024142877378666</v>
       </c>
       <c r="N16">
-        <v>1.007994051467846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008090778824219</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028956134104496</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027763420601342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9794458535346562</v>
+        <v>0.9841890013873379</v>
       </c>
       <c r="D17">
-        <v>1.003323725137946</v>
+        <v>1.010198010114809</v>
       </c>
       <c r="E17">
-        <v>0.9988240254646754</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.003466814203973</v>
+        <v>1.010603487087967</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040003094131173</v>
+        <v>1.04312021226506</v>
       </c>
       <c r="J17">
-        <v>1.00771747370863</v>
+        <v>1.012268631423433</v>
       </c>
       <c r="K17">
-        <v>1.017273727311318</v>
+        <v>1.02402956315053</v>
       </c>
       <c r="L17">
-        <v>1.012852705239772</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.017414329437266</v>
+        <v>1.024428118455016</v>
       </c>
       <c r="N17">
-        <v>1.009148548108106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008272096897185</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029051366314511</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028141935987132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9805660212766176</v>
+        <v>0.9847567501119637</v>
       </c>
       <c r="D18">
-        <v>1.004121734936123</v>
+        <v>1.010558580254279</v>
       </c>
       <c r="E18">
-        <v>1.000010612779017</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.00470478210177</v>
+        <v>1.010220145062506</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040344492132677</v>
+        <v>1.043202514335388</v>
       </c>
       <c r="J18">
-        <v>1.008383873258047</v>
+        <v>1.012408260688361</v>
       </c>
       <c r="K18">
-        <v>1.017869699134301</v>
+        <v>1.024197514205394</v>
       </c>
       <c r="L18">
-        <v>1.013829163035077</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.018442796060793</v>
+        <v>1.023864766960229</v>
       </c>
       <c r="N18">
-        <v>1.00981589402132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008302287169994</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.028365742535647</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028248921542904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9809463806175964</v>
+        <v>0.9846023463293208</v>
       </c>
       <c r="D19">
-        <v>1.004392746601855</v>
+        <v>1.010445030019745</v>
       </c>
       <c r="E19">
-        <v>1.000413692648877</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.005125257251485</v>
+        <v>1.008822064364433</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040460141629402</v>
+        <v>1.043110687188707</v>
       </c>
       <c r="J19">
-        <v>1.008610087358447</v>
+        <v>1.012121837911049</v>
       </c>
       <c r="K19">
-        <v>1.018071945019521</v>
+        <v>1.024022282095462</v>
       </c>
       <c r="L19">
-        <v>1.014160783927543</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.018792032774425</v>
+        <v>1.022426499380254</v>
       </c>
       <c r="N19">
-        <v>1.01004242937169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00818631604207</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.026898648143032</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028131489853316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9792390470101539</v>
+        <v>0.9824247786532585</v>
       </c>
       <c r="D20">
-        <v>1.003176416807058</v>
+        <v>1.00899119959903</v>
       </c>
       <c r="E20">
-        <v>0.9986050361920515</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.00323831456182</v>
+        <v>1.004712031482373</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039939934698816</v>
+        <v>1.042527945610537</v>
       </c>
       <c r="J20">
-        <v>1.007594411354027</v>
+        <v>1.010650420459644</v>
       </c>
       <c r="K20">
-        <v>1.017163641764035</v>
+        <v>1.022877770825716</v>
       </c>
       <c r="L20">
-        <v>1.012672458786375</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.017224460114584</v>
+        <v>1.018672528457716</v>
       </c>
       <c r="N20">
-        <v>1.009025310990844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007663472817075</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.023391886471698</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027326225889713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9735745583573863</v>
+        <v>0.9779532159305153</v>
       </c>
       <c r="D21">
-        <v>0.9991443635531587</v>
+        <v>1.006058487143211</v>
       </c>
       <c r="E21">
-        <v>0.9926161471290169</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9969860809208866</v>
+        <v>1.000866982732242</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038194979268588</v>
+        <v>1.041528905024829</v>
       </c>
       <c r="J21">
-        <v>1.004220225785518</v>
+        <v>1.008402525328121</v>
       </c>
       <c r="K21">
-        <v>1.01414196438144</v>
+        <v>1.020925981559885</v>
       </c>
       <c r="L21">
-        <v>1.007738772294456</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.012024778781757</v>
+        <v>1.015831948455316</v>
       </c>
       <c r="N21">
-        <v>1.005646333691803</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006916701194203</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.021102047709617</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025949472850255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9699212943300287</v>
+        <v>0.9751221948002616</v>
       </c>
       <c r="D22">
-        <v>0.9965470341774361</v>
+        <v>1.004200901614123</v>
       </c>
       <c r="E22">
-        <v>0.9887626857146457</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9929599987508826</v>
+        <v>0.9985680384076485</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037055248318476</v>
+        <v>1.040884376063156</v>
       </c>
       <c r="J22">
-        <v>1.002040888872806</v>
+        <v>1.006994509638734</v>
       </c>
       <c r="K22">
-        <v>1.012187206752588</v>
+        <v>1.019689594667956</v>
       </c>
       <c r="L22">
-        <v>1.00456009198839</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.008672221501378</v>
+        <v>1.014167916210698</v>
       </c>
       <c r="N22">
-        <v>1.003463901870702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006449918473624</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.019785039727653</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025061604572086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9718669645287886</v>
+        <v>0.9766236668679207</v>
       </c>
       <c r="D23">
-        <v>0.997930006351621</v>
+        <v>1.005181617355573</v>
       </c>
       <c r="E23">
-        <v>0.990814132327881</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9951036414888533</v>
+        <v>0.9997882619167271</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037663576604991</v>
+        <v>1.041224916360129</v>
       </c>
       <c r="J23">
-        <v>1.003201852932089</v>
+        <v>1.007739256589367</v>
       </c>
       <c r="K23">
-        <v>1.013228816877909</v>
+        <v>1.020340670199051</v>
       </c>
       <c r="L23">
-        <v>1.006252697966644</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.010457647542381</v>
+        <v>1.015051005765224</v>
       </c>
       <c r="N23">
-        <v>1.004626514632114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006695916654307</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.020483966405779</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025512200646065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9793325233216733</v>
+        <v>0.9824165460420846</v>
       </c>
       <c r="D24">
-        <v>1.003242999178224</v>
+        <v>1.008976421601302</v>
       </c>
       <c r="E24">
-        <v>0.9987040160365667</v>
+        <v>0.9381640424011828</v>
       </c>
       <c r="F24">
-        <v>1.003341594019326</v>
+        <v>1.004514328145348</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03996848766996</v>
+        <v>1.04251218020441</v>
       </c>
       <c r="J24">
-        <v>1.00765003657661</v>
+        <v>1.010608671170311</v>
       </c>
       <c r="K24">
-        <v>1.017213402463859</v>
+        <v>1.022847713886659</v>
       </c>
       <c r="L24">
-        <v>1.012753928893917</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.017310280549773</v>
+        <v>1.018462628217</v>
       </c>
       <c r="N24">
-        <v>1.009081015207623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007645360132881</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.02318410921334</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027277250792914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9876251283389966</v>
+        <v>0.988892142340262</v>
       </c>
       <c r="D25">
-        <v>1.009154620860236</v>
+        <v>1.013224573159095</v>
       </c>
       <c r="E25">
-        <v>1.007505896571809</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.012518469972628</v>
+        <v>1.009839606821621</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04246677478904</v>
+        <v>1.043885631965801</v>
       </c>
       <c r="J25">
-        <v>1.012576255830312</v>
+        <v>1.01379920127225</v>
       </c>
       <c r="K25">
-        <v>1.021612466126527</v>
+        <v>1.025621005668696</v>
       </c>
       <c r="L25">
-        <v>1.019988799965792</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.024925512025709</v>
+        <v>1.022287071985077</v>
       </c>
       <c r="N25">
-        <v>1.014014230257712</v>
+        <v>1.008701344863702</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026210968360393</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029235258740678</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9938561256943703</v>
+        <v>0.9943868994933698</v>
       </c>
       <c r="D2">
-        <v>1.016469831171097</v>
+        <v>1.016756626019623</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680762</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.013960724792192</v>
+        <v>1.014190658076509</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044874654212551</v>
+        <v>1.045020222149796</v>
       </c>
       <c r="J2">
-        <v>1.016222164828582</v>
+        <v>1.016736803470539</v>
       </c>
       <c r="K2">
-        <v>1.027704386218161</v>
+        <v>1.027987347929051</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.025228931356819</v>
+        <v>1.025455772122541</v>
       </c>
       <c r="N2">
-        <v>1.009501176681219</v>
+        <v>1.011769301855812</v>
       </c>
       <c r="O2">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P2">
-        <v>1.028539296241645</v>
+        <v>1.028718828520415</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.030659534149562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030868482537254</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019633571275388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.997369627110232</v>
+        <v>0.9977693076151936</v>
       </c>
       <c r="D3">
-        <v>1.018774903821375</v>
+        <v>1.018893312429125</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9571825583057851</v>
       </c>
       <c r="F3">
-        <v>1.016892260481912</v>
+        <v>1.017065171483546</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045546892224959</v>
+        <v>1.045607056369665</v>
       </c>
       <c r="J3">
-        <v>1.017932256494997</v>
+        <v>1.018320968827968</v>
       </c>
       <c r="K3">
-        <v>1.029173062560915</v>
+        <v>1.029290024967693</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9683942856474069</v>
       </c>
       <c r="M3">
-        <v>1.027313469441532</v>
+        <v>1.027484258973959</v>
       </c>
       <c r="N3">
-        <v>1.010067162961342</v>
+        <v>1.012186681569072</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030189094387136</v>
+        <v>1.03032426480831</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031695344440394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031786636696017</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019877637827009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9995991689863709</v>
+        <v>0.9999167331137307</v>
       </c>
       <c r="D4">
-        <v>1.020237804789665</v>
+        <v>1.020250230358283</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9600238894088614</v>
       </c>
       <c r="F4">
-        <v>1.018760629815544</v>
+        <v>1.018897897883894</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04595808349445</v>
+        <v>1.045964401403869</v>
       </c>
       <c r="J4">
-        <v>1.019013133622687</v>
+        <v>1.019322569106604</v>
       </c>
       <c r="K4">
-        <v>1.030097962275353</v>
+        <v>1.030110245138678</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9706300002952759</v>
       </c>
       <c r="M4">
-        <v>1.028637783010628</v>
+        <v>1.028773469169439</v>
       </c>
       <c r="N4">
-        <v>1.010424992041906</v>
+        <v>1.012450664840489</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.031237214273608</v>
+        <v>1.031344602166191</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.032350246539971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032367600901211</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020028404815022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000528301376634</v>
+        <v>1.000811956477394</v>
       </c>
       <c r="D5">
-        <v>1.02084917859627</v>
+        <v>1.020817751152231</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.019540337484594</v>
+        <v>1.019662904548678</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046126881689768</v>
+        <v>1.046110897350972</v>
       </c>
       <c r="J5">
-        <v>1.019463529895159</v>
+        <v>1.019740139971981</v>
       </c>
       <c r="K5">
-        <v>1.030483859926084</v>
+        <v>1.030452783908612</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.029189677057572</v>
+        <v>1.029310869477051</v>
       </c>
       <c r="N5">
-        <v>1.010574371803994</v>
+        <v>1.012560941899185</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.031674006980754</v>
+        <v>1.031769923842097</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.032630356438529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032617761551524</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020090926320457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000686217593675</v>
+        <v>1.000964205104696</v>
       </c>
       <c r="D6">
-        <v>1.020955188548003</v>
+        <v>1.020916454099487</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017088</v>
       </c>
       <c r="F6">
-        <v>1.019671950558367</v>
+        <v>1.019792061490012</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046156801002741</v>
+        <v>1.046137099258216</v>
       </c>
       <c r="J6">
-        <v>1.019541245278744</v>
+        <v>1.019812363809354</v>
       </c>
       <c r="K6">
-        <v>1.030552012022618</v>
+        <v>1.030513708745067</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.029283079800065</v>
+        <v>1.029401849834091</v>
       </c>
       <c r="N6">
-        <v>1.010600454847673</v>
+        <v>1.012580259148022</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.031747929904981</v>
+        <v>1.031841929577103</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.032687378354988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032670540776485</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020102333558771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.999618281673009</v>
+        <v>0.9999432159476354</v>
       </c>
       <c r="D7">
-        <v>1.020255962623122</v>
+        <v>1.020273038938588</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691359</v>
       </c>
       <c r="F7">
-        <v>1.01877395200733</v>
+        <v>1.018914405168464</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045965426562734</v>
+        <v>1.045974109230044</v>
       </c>
       <c r="J7">
-        <v>1.019025662619733</v>
+        <v>1.019342283156828</v>
       </c>
       <c r="K7">
-        <v>1.030112990055108</v>
+        <v>1.030129870327621</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.028648024434</v>
+        <v>1.028786859579672</v>
       </c>
       <c r="N7">
-        <v>1.010429979236766</v>
+        <v>1.012482415977855</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.031245319779438</v>
+        <v>1.031355199914897</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03238118634161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032403787832834</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020033293304845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9950607970393824</v>
+        <v>0.9955707969963185</v>
       </c>
       <c r="D8">
-        <v>1.01726679431722</v>
+        <v>1.017512093025882</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.014960933232064</v>
+        <v>1.015181766470929</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045112864832798</v>
+        <v>1.045237415027979</v>
       </c>
       <c r="J8">
-        <v>1.016813251715072</v>
+        <v>1.017308265840391</v>
       </c>
       <c r="K8">
-        <v>1.028217847130134</v>
+        <v>1.028459963805332</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9660706434537711</v>
       </c>
       <c r="M8">
-        <v>1.025941992018766</v>
+        <v>1.026159944181371</v>
       </c>
       <c r="N8">
-        <v>1.009697867055876</v>
+        <v>1.011999377910993</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.02910364528825</v>
+        <v>1.029276142575156</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031045748613713</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031228078397279</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019724923185612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9866697204462652</v>
+        <v>0.9875028276294568</v>
       </c>
       <c r="D9">
-        <v>1.011758380108424</v>
+        <v>1.012413006619439</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419925932</v>
       </c>
       <c r="F9">
-        <v>1.008010336333836</v>
+        <v>1.008372223296681</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043417756228562</v>
+        <v>1.043749348170987</v>
       </c>
       <c r="J9">
-        <v>1.012702149108176</v>
+        <v>1.013504745070311</v>
       </c>
       <c r="K9">
-        <v>1.024663523504972</v>
+        <v>1.025307851296064</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.957654120883408</v>
       </c>
       <c r="M9">
-        <v>1.020974774677727</v>
+        <v>1.021330911874158</v>
       </c>
       <c r="N9">
-        <v>1.008336807646277</v>
+        <v>1.011006514343471</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.025172351100922</v>
+        <v>1.025454215920716</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028529344119631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028995797060257</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019117187090781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9809151574675039</v>
+        <v>0.9820101781510407</v>
       </c>
       <c r="D10">
-        <v>1.007990970754884</v>
+        <v>1.008952898978269</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547284</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.003535270625256</v>
+        <v>1.004011469592469</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042192607945079</v>
+        <v>1.042679109133531</v>
       </c>
       <c r="J10">
-        <v>1.009906985999845</v>
+        <v>1.010956190793844</v>
       </c>
       <c r="K10">
-        <v>1.022217429249733</v>
+        <v>1.023162365913482</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.017840986699672</v>
+        <v>1.018308671487231</v>
       </c>
       <c r="N10">
-        <v>1.007416054663725</v>
+        <v>1.010455468485162</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022744548800534</v>
+        <v>1.023114675301728</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026816768571697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027497455761145</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018694123835531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9790969435478345</v>
+        <v>0.9803214942074894</v>
       </c>
       <c r="D11">
-        <v>1.006830980575459</v>
+        <v>1.007915244301242</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>1.004086431150525</v>
+        <v>1.004614883679411</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041889279838766</v>
+        <v>1.042437305809178</v>
       </c>
       <c r="J11">
-        <v>1.009365931908749</v>
+        <v>1.010536471861361</v>
       </c>
       <c r="K11">
-        <v>1.02162521421879</v>
+        <v>1.022689418663115</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.018931692647666</v>
+        <v>1.019450291678503</v>
       </c>
       <c r="N11">
-        <v>1.007270336918608</v>
+        <v>1.010597242020931</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.024051331097332</v>
+        <v>1.024461537168787</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026431264970875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027199488203477</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018625902511462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9786505411459062</v>
+        <v>0.9799151144201085</v>
       </c>
       <c r="D12">
-        <v>1.006554202199803</v>
+        <v>1.007671086114613</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411972</v>
       </c>
       <c r="F12">
-        <v>1.005127744766781</v>
+        <v>1.005670386626006</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041852740722031</v>
+        <v>1.042417126489751</v>
       </c>
       <c r="J12">
-        <v>1.009386761160169</v>
+        <v>1.010594516061526</v>
       </c>
       <c r="K12">
-        <v>1.021556902150614</v>
+        <v>1.022652781263007</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.020157360266749</v>
+        <v>1.020689751363412</v>
       </c>
       <c r="N12">
-        <v>1.007300692233634</v>
+        <v>1.010730609567999</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025351821431258</v>
+        <v>1.02577279024937</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02638296507702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02717358441769</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018633555076141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9792355758584651</v>
+        <v>0.9804635968553796</v>
       </c>
       <c r="D13">
-        <v>1.006948194122774</v>
+        <v>1.008024241792792</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.006640669447494</v>
+        <v>1.007165235526418</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042029756896462</v>
+        <v>1.042573541450374</v>
       </c>
       <c r="J13">
-        <v>1.009849540546421</v>
+        <v>1.011022679506949</v>
       </c>
       <c r="K13">
-        <v>1.021899886503063</v>
+        <v>1.022955784761389</v>
       </c>
       <c r="L13">
         <v>0.9483836088964247</v>
       </c>
       <c r="M13">
-        <v>1.021598130682575</v>
+        <v>1.022112859196122</v>
       </c>
       <c r="N13">
-        <v>1.007472566113718</v>
+        <v>1.010834080505522</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026770912740097</v>
+        <v>1.027177811098516</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026622950249602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027385054470271</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01870363980723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9801022673962281</v>
+        <v>0.9812717121001798</v>
       </c>
       <c r="D14">
-        <v>1.007522105362787</v>
+        <v>1.008537878095136</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.007886274865702</v>
+        <v>1.008384526853807</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042247169445901</v>
+        <v>1.042760583773819</v>
       </c>
       <c r="J14">
-        <v>1.010363775128577</v>
+        <v>1.011481712718673</v>
       </c>
       <c r="K14">
-        <v>1.022320331087127</v>
+        <v>1.023317318988438</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.022677760274811</v>
+        <v>1.023166800532044</v>
       </c>
       <c r="N14">
-        <v>1.00765359826922</v>
+        <v>1.01089196630943</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027799313852777</v>
+        <v>1.02818585248574</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026921665574123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027642249604965</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018779805451549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9805493961989625</v>
+        <v>0.9816881707934705</v>
       </c>
       <c r="D15">
-        <v>1.007817502923348</v>
+        <v>1.008802476370789</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>1.008341570649141</v>
+        <v>1.008826494012485</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04235149489115</v>
+        <v>1.04284939455399</v>
       </c>
       <c r="J15">
-        <v>1.01059820360749</v>
+        <v>1.011687261243772</v>
       </c>
       <c r="K15">
-        <v>1.022522366294179</v>
+        <v>1.023489262324654</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.023036809972554</v>
+        <v>1.023512839739868</v>
       </c>
       <c r="N15">
-        <v>1.007733333792526</v>
+        <v>1.010906200704462</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.028120956831954</v>
+        <v>1.028497201955092</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027070451269581</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027770325604649</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018814777270794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9828611817225907</v>
+        <v>0.9838458453526885</v>
       </c>
       <c r="D16">
-        <v>1.009331316301422</v>
+        <v>1.010161372014175</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.009987799186695</v>
+        <v>1.0104072273454</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042851479411464</v>
+        <v>1.043271324844608</v>
       </c>
       <c r="J16">
-        <v>1.011692666424227</v>
+        <v>1.012636488360476</v>
       </c>
       <c r="K16">
-        <v>1.023497921410222</v>
+        <v>1.024313405756147</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.024142877378666</v>
+        <v>1.024554951128769</v>
       </c>
       <c r="N16">
-        <v>1.008090778824219</v>
+        <v>1.010947159714034</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028956134104496</v>
+        <v>1.029281838985313</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027763420601342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028356535154524</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018978394153575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9841890013873379</v>
+        <v>0.985093900116494</v>
       </c>
       <c r="D17">
-        <v>1.010198010114809</v>
+        <v>1.010945561845612</v>
       </c>
       <c r="E17">
         <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.010603487087967</v>
+        <v>1.010989547490176</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04312021226506</v>
+        <v>1.043498471647023</v>
       </c>
       <c r="J17">
-        <v>1.012268631423433</v>
+        <v>1.01313719978943</v>
       </c>
       <c r="K17">
-        <v>1.02402956315053</v>
+        <v>1.024764359424215</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.024428118455016</v>
+        <v>1.024807595301695</v>
       </c>
       <c r="N17">
-        <v>1.008272096897185</v>
+        <v>1.010978321196742</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029051366314511</v>
+        <v>1.029351336738498</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028141935987132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028678245509699</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019065090047264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9847567501119637</v>
+        <v>0.9856298143648663</v>
       </c>
       <c r="D18">
-        <v>1.010558580254279</v>
+        <v>1.011273864830217</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.010220145062506</v>
+        <v>1.010593873668547</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043202514335388</v>
+        <v>1.043564525876787</v>
       </c>
       <c r="J18">
-        <v>1.012408260688361</v>
+        <v>1.013246922463388</v>
       </c>
       <c r="K18">
-        <v>1.024197514205394</v>
+        <v>1.024900793423237</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.023864766960229</v>
+        <v>1.024232214740014</v>
       </c>
       <c r="N18">
-        <v>1.008302287169994</v>
+        <v>1.01095423844053</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028365742535647</v>
+        <v>1.028656265847794</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028248921542904</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028761814377464</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019084522684908</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9846023463293208</v>
+        <v>0.9854849368651156</v>
       </c>
       <c r="D19">
-        <v>1.010445030019745</v>
+        <v>1.011173825233346</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.008822064364433</v>
+        <v>1.009201858939853</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043110687188707</v>
+        <v>1.043479560813368</v>
       </c>
       <c r="J19">
-        <v>1.012121837911049</v>
+        <v>1.012969839971784</v>
       </c>
       <c r="K19">
-        <v>1.024022282095462</v>
+        <v>1.024738907343706</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.022426499380254</v>
+        <v>1.022799922701415</v>
       </c>
       <c r="N19">
-        <v>1.00818631604207</v>
+        <v>1.010853821457063</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026898648143032</v>
+        <v>1.027193994964288</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028131489853316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028654443355513</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019038411402605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9824247786532585</v>
+        <v>0.9834293050488842</v>
       </c>
       <c r="D20">
-        <v>1.00899119959903</v>
+        <v>1.009858588878221</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.004712031482373</v>
+        <v>1.005148730148088</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042527945610537</v>
+        <v>1.042966804815844</v>
       </c>
       <c r="J20">
-        <v>1.010650420459644</v>
+        <v>1.01161428983453</v>
       </c>
       <c r="K20">
-        <v>1.022877770825716</v>
+        <v>1.023730274017496</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.018672528457716</v>
+        <v>1.019101645512048</v>
       </c>
       <c r="N20">
-        <v>1.007663472817075</v>
+        <v>1.010531525130657</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.023391886471698</v>
+        <v>1.023731494610088</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027326225889713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027945646304213</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018807841494212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9779532159305153</v>
+        <v>0.9792717871550661</v>
       </c>
       <c r="D21">
-        <v>1.006058487143211</v>
+        <v>1.007239038693274</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.000866982732242</v>
+        <v>1.001441604415186</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041528905024829</v>
+        <v>1.042125541508829</v>
       </c>
       <c r="J21">
-        <v>1.008402525328121</v>
+        <v>1.00966245822842</v>
       </c>
       <c r="K21">
-        <v>1.020925981559885</v>
+        <v>1.022084550978898</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.015831948455316</v>
+        <v>1.016395716533171</v>
       </c>
       <c r="N21">
-        <v>1.006916701194203</v>
+        <v>1.010432709108164</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.021102047709617</v>
+        <v>1.021548244641418</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025949472850255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026785631393575</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018476630970958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9751221948002616</v>
+        <v>0.9766392443301277</v>
       </c>
       <c r="D22">
-        <v>1.004200901614123</v>
+        <v>1.005579036389579</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9985680384076485</v>
+        <v>0.9992298377056618</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040884376063156</v>
+        <v>1.041580385271128</v>
       </c>
       <c r="J22">
-        <v>1.006994509638734</v>
+        <v>1.008440143634072</v>
       </c>
       <c r="K22">
-        <v>1.019689594667956</v>
+        <v>1.021040775788988</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.014167916210698</v>
+        <v>1.014816567116378</v>
       </c>
       <c r="N22">
-        <v>1.006449918473624</v>
+        <v>1.010367761308886</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.019785039727653</v>
+        <v>1.020298418561477</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025061604572086</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026032658476651</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018264531410072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9766236668679207</v>
+        <v>0.9780224923673887</v>
       </c>
       <c r="D23">
-        <v>1.005181617355573</v>
+        <v>1.006446162166325</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9997882619167271</v>
+        <v>1.000398152571659</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041224916360129</v>
+        <v>1.041863792683343</v>
       </c>
       <c r="J23">
-        <v>1.007739256589367</v>
+        <v>1.009074173997685</v>
       </c>
       <c r="K23">
-        <v>1.020340670199051</v>
+        <v>1.02158111360171</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.015051005765224</v>
+        <v>1.01564909738507</v>
       </c>
       <c r="N23">
-        <v>1.006695916654307</v>
+        <v>1.010358377661593</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.020483966405779</v>
+        <v>1.020957329295014</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025512200646065</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026404014568731</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018373795889942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9824165460420846</v>
+        <v>0.9834214762655186</v>
       </c>
       <c r="D24">
-        <v>1.008976421601302</v>
+        <v>1.009844545307685</v>
       </c>
       <c r="E24">
         <v>0.9381640424011828</v>
       </c>
       <c r="F24">
-        <v>1.004514328145348</v>
+        <v>1.004951546175358</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04251218020441</v>
+        <v>1.042951418189923</v>
       </c>
       <c r="J24">
-        <v>1.010608671170311</v>
+        <v>1.01157298448751</v>
       </c>
       <c r="K24">
-        <v>1.022847713886659</v>
+        <v>1.023700957510321</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.018462628217</v>
+        <v>1.018892261536122</v>
       </c>
       <c r="N24">
-        <v>1.007645360132881</v>
+        <v>1.010513486866503</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.02318410921334</v>
+        <v>1.0235241435277</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027277250792914</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027894528844625</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018798540394881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.988892142340262</v>
+        <v>0.9896292785381641</v>
       </c>
       <c r="D25">
-        <v>1.013224573159095</v>
+        <v>1.013764140157275</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.009839606821621</v>
+        <v>1.010159539630013</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I25">
-        <v>1.043885631965801</v>
+        <v>1.044159108736253</v>
       </c>
       <c r="J25">
-        <v>1.01379920127225</v>
+        <v>1.014510771334608</v>
       </c>
       <c r="K25">
-        <v>1.025621005668696</v>
+        <v>1.026152478088169</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.022287071985077</v>
+        <v>1.022602162757403</v>
       </c>
       <c r="N25">
-        <v>1.008701344863702</v>
+        <v>1.011239718103273</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026210968360393</v>
+        <v>1.026460346610385</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029235258740678</v>
+        <v>1.02962471053313</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019283231411835</v>
       </c>
     </row>
   </sheetData>
